--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="487">
   <si>
     <t>Path</t>
   </si>
@@ -396,6 +396,13 @@
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the type of identifier</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -406,6 +413,216 @@
   </si>
   <si>
     <t>PID-3</t>
+  </si>
+  <si>
+    <t>arv</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Patient.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://basespecs.vn/NamingSystem/ARVIdentifiers</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Patient.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Patient.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>passport</t>
+  </si>
+  <si>
+    <t>https://basespecs.vn/NamingSystem/PassportNumbers</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>https://basespecs.vn/NamingSystem/InsuranceNumbers</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -436,9 +653,6 @@
     <t>statusCode</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.status</t>
   </si>
   <si>
@@ -513,9 +727,6 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
@@ -606,6 +817,13 @@
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:use}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the type of address</t>
+  </si>
+  <si>
     <t>addr</t>
   </si>
   <si>
@@ -615,13 +833,280 @@
     <t>PID-11</t>
   </si>
   <si>
+    <t>Temporary</t>
+  </si>
+  <si>
+    <t>Patient.address.id</t>
+  </si>
+  <si>
+    <t>Patient.address.extension</t>
+  </si>
+  <si>
+    <t>Patient.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
+    <t>Patient.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>XAD.18</t>
+  </si>
+  <si>
+    <t>Patient.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>Patient.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>Patient.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>XAD.9</t>
+  </si>
+  <si>
+    <t>Patient.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>Patient.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>Patient.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.period</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>XAD.12 / XAD.13 + XAD.14</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
     <t>Patient.maritalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Marital (civil) status of a patient</t>
   </si>
   <si>
@@ -629,9 +1114,6 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>The domestic partnership status of a person.</t>
@@ -731,25 +1213,7 @@
     <t>Patient.contact.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Patient.contact.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Patient.contact.modifierExtension</t>
@@ -853,10 +1317,6 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Organization that is associated with the contact</t>
   </si>
   <si>
@@ -877,10 +1337,6 @@
   </si>
   <si>
     <t>Patient.contact.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
@@ -1225,7 +1681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN47"/>
+  <dimension ref="A1:AN100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1257,11 +1713,11 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="80.89453125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1272,7 +1728,7 @@
     <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="39.375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.39453125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2604,16 +3060,16 @@
         <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>115</v>
@@ -2631,16 +3087,16 @@
         <v>63</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -2648,9 +3104,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>44</v>
       </c>
@@ -2659,38 +3117,34 @@
         <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P13" t="s" s="2">
-        <v>130</v>
-      </c>
+      <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
         <v>44</v>
       </c>
@@ -2734,13 +3188,13 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>44</v>
@@ -2749,16 +3203,16 @@
         <v>63</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>44</v>
@@ -2766,7 +3220,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2777,7 +3231,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>44</v>
@@ -2786,23 +3240,19 @@
         <v>44</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>44</v>
       </c>
@@ -2850,31 +3300,31 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>44</v>
@@ -2882,11 +3332,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2902,23 +3352,21 @@
         <v>44</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>44</v>
       </c>
@@ -2954,19 +3402,19 @@
         <v>44</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2978,19 +3426,19 @@
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>44</v>
@@ -2998,7 +3446,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3015,7 +3463,7 @@
         <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>52</v>
@@ -3024,16 +3472,16 @@
         <v>71</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3058,13 +3506,13 @@
         <v>44</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -3082,7 +3530,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3097,16 +3545,16 @@
         <v>63</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>44</v>
@@ -3114,7 +3562,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3137,19 +3585,19 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3174,13 +3622,13 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
@@ -3198,7 +3646,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3213,24 +3661,24 @@
         <v>63</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>172</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3238,7 +3686,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>51</v>
@@ -3247,38 +3695,38 @@
         <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>44</v>
@@ -3314,7 +3762,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3329,16 +3777,16 @@
         <v>63</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>44</v>
@@ -3346,7 +3794,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3354,10 +3802,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>44</v>
@@ -3369,20 +3817,18 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>44</v>
       </c>
@@ -3394,7 +3840,7 @@
         <v>44</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>44</v>
@@ -3430,13 +3876,13 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>44</v>
@@ -3445,16 +3891,16 @@
         <v>63</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>44</v>
@@ -3462,7 +3908,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3482,21 +3928,19 @@
         <v>44</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>194</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>44</v>
       </c>
@@ -3520,13 +3964,13 @@
         <v>44</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>44</v>
@@ -3544,7 +3988,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3559,16 +4003,16 @@
         <v>63</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>44</v>
@@ -3576,7 +4020,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3596,23 +4040,21 @@
         <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>44</v>
       </c>
@@ -3660,7 +4102,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3675,16 +4117,16 @@
         <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
@@ -3692,9 +4134,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>44</v>
       </c>
@@ -3712,22 +4156,20 @@
         <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -3776,7 +4218,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3791,16 +4233,16 @@
         <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
@@ -3808,7 +4250,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3819,7 +4261,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>44</v>
@@ -3831,20 +4273,16 @@
         <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>44</v>
       </c>
@@ -3892,25 +4330,25 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
@@ -3924,18 +4362,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -3947,15 +4385,17 @@
         <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -3992,34 +4432,34 @@
         <v>44</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>44</v>
@@ -4036,41 +4476,43 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
       </c>
@@ -4094,13 +4536,13 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
@@ -4118,22 +4560,22 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>44</v>
@@ -4142,7 +4584,7 @@
         <v>44</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4150,42 +4592,42 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>234</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4210,13 +4652,13 @@
         <v>44</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>44</v>
@@ -4234,22 +4676,22 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>44</v>
@@ -4258,7 +4700,7 @@
         <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4266,7 +4708,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4274,10 +4716,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>44</v>
@@ -4286,33 +4728,35 @@
         <v>44</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="N27" t="s" s="2">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>44</v>
@@ -4324,13 +4768,13 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
@@ -4348,13 +4792,13 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>44</v>
@@ -4363,16 +4807,16 @@
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4380,7 +4824,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4388,7 +4832,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>51</v>
@@ -4400,21 +4844,21 @@
         <v>44</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>44</v>
       </c>
@@ -4426,7 +4870,7 @@
         <v>44</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>44</v>
@@ -4462,7 +4906,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4477,16 +4921,16 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4494,7 +4938,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4505,7 +4949,7 @@
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
@@ -4514,23 +4958,19 @@
         <v>44</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4578,13 +5018,13 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -4593,16 +5033,16 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4610,7 +5050,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4630,21 +5070,21 @@
         <v>44</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -4692,7 +5132,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4707,16 +5147,16 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4724,9 +5164,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>44</v>
       </c>
@@ -4735,7 +5177,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -4744,20 +5186,20 @@
         <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>262</v>
+        <v>118</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>263</v>
+        <v>119</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -4782,13 +5224,13 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -4806,13 +5248,13 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>261</v>
+        <v>115</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
@@ -4821,16 +5263,16 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -4838,7 +5280,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>127</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4861,18 +5303,16 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>266</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
       </c>
@@ -4920,7 +5360,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>265</v>
+        <v>130</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4929,22 +5369,22 @@
         <v>51</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -4952,18 +5392,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>132</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>44</v>
@@ -4975,15 +5415,17 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>274</v>
+        <v>96</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>275</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5020,37 +5462,37 @@
         <v>44</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>277</v>
+        <v>131</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
@@ -5064,7 +5506,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>137</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5075,31 +5517,31 @@
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>279</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>280</v>
+        <v>139</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>282</v>
+        <v>141</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5124,13 +5566,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5148,13 +5590,13 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
@@ -5163,16 +5605,16 @@
         <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5180,7 +5622,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>147</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5200,19 +5642,23 @@
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5236,13 +5682,13 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
@@ -5260,7 +5706,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5272,10 +5718,10 @@
         <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>44</v>
@@ -5284,7 +5730,7 @@
         <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5292,18 +5738,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>158</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>44</v>
@@ -5312,33 +5758,35 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>44</v>
@@ -5374,22 +5822,22 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>44</v>
@@ -5398,7 +5846,7 @@
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5406,43 +5854,41 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>168</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>234</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
       </c>
@@ -5454,7 +5900,7 @@
         <v>44</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>44</v>
@@ -5490,22 +5936,22 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>44</v>
@@ -5514,7 +5960,7 @@
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5522,7 +5968,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>176</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5530,7 +5976,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>51</v>
@@ -5542,23 +5988,19 @@
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
@@ -5582,13 +6024,13 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>44</v>
@@ -5606,10 +6048,10 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>51</v>
@@ -5621,16 +6063,16 @@
         <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>295</v>
+        <v>182</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5638,7 +6080,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>183</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5658,23 +6100,21 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>297</v>
+        <v>185</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>298</v>
+        <v>186</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>44</v>
       </c>
@@ -5722,7 +6162,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>296</v>
+        <v>188</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5737,16 +6177,16 @@
         <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>301</v>
+        <v>189</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>303</v>
+        <v>190</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5754,45 +6194,49 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>195</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>305</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>306</v>
+        <v>196</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="Q40" t="s" s="2">
         <v>44</v>
       </c>
@@ -5836,13 +6280,13 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>304</v>
+        <v>195</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
@@ -5851,24 +6295,24 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>310</v>
+        <v>202</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>311</v>
+        <v>44</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5879,10 +6323,10 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>44</v>
@@ -5891,19 +6335,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>206</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>207</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>316</v>
+        <v>209</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -5952,13 +6396,13 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>44</v>
@@ -5967,16 +6411,16 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>271</v>
+        <v>210</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>317</v>
+        <v>211</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -5984,7 +6428,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>213</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6001,25 +6445,25 @@
         <v>44</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6068,7 +6512,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>318</v>
+        <v>213</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6083,24 +6527,24 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>323</v>
+        <v>219</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>222</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6114,25 +6558,29 @@
         <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6156,13 +6604,13 @@
         <v>44</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>44</v>
@@ -6180,7 +6628,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6192,61 +6640,63 @@
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>325</v>
+        <v>232</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6300,44 +6750,44 @@
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>44</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>234</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
@@ -6349,19 +6799,19 @@
         <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6410,31 +6860,31 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6442,7 +6892,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6450,10 +6900,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
@@ -6465,18 +6915,20 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>328</v>
+        <v>251</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>329</v>
+        <v>252</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>253</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
@@ -6512,25 +6964,25 @@
         <v>44</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
@@ -6539,16 +6991,16 @@
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>120</v>
+        <v>258</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>332</v>
+        <v>260</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
@@ -6556,15 +7008,17 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>51</v>
@@ -6579,16 +7033,20 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>334</v>
+        <v>252</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
@@ -6612,13 +7070,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -6636,13 +7094,13 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
@@ -6651,23 +7109,6071 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AF58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN47">
+  <autoFilter ref="A1:AN100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6677,7 +13183,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI46">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$102</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="495">
   <si>
     <t>Path</t>
   </si>
@@ -357,6 +357,32 @@
 </t>
   </si>
   <si>
+    <t>comm-preference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-preferenceType}
+</t>
+  </si>
+  <si>
+    <t>The type of the patient's preferred language.</t>
+  </si>
+  <si>
+    <t>Indicates what mode of communication the patient prefers to use for the indicated language.</t>
+  </si>
+  <si>
+    <t>genderIdentity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-genderIdentity}
+</t>
+  </si>
+  <si>
+    <t>The patient's gender identity</t>
+  </si>
+  <si>
+    <t>The gender the patient identifies with. The Patient's gender identity is used as guidance (e.g. for staff) about how to interact with the patient.</t>
+  </si>
+  <si>
     <t>Patient.modifierExtension</t>
   </si>
   <si>
@@ -415,7 +441,7 @@
     <t>PID-3</t>
   </si>
   <si>
-    <t>arv</t>
+    <t>art</t>
   </si>
   <si>
     <t>Patient.identifier.id</t>
@@ -527,7 +553,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>https://basespecs.vn/NamingSystem/ARVIdentifiers</t>
+    <t>https://basespecs.vn/NamingSystem/ARTIdentifiers</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -1681,7 +1707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN100"/>
+  <dimension ref="A1:AN102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1691,7 +1717,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2872,32 +2898,34 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>110</v>
@@ -2905,12 +2933,8 @@
       <c r="L11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>113</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>44</v>
       </c>
@@ -2958,7 +2982,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2967,13 +2991,13 @@
         <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>44</v>
@@ -2988,11 +3012,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>44</v>
       </c>
@@ -3001,30 +3027,28 @@
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>119</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>44</v>
       </c>
@@ -3060,19 +3084,19 @@
         <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -3081,22 +3105,22 @@
         <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -3104,13 +3128,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3123,23 +3145,25 @@
         <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N13" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>44</v>
@@ -3188,7 +3212,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -3200,19 +3224,19 @@
         <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>44</v>
@@ -3220,7 +3244,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3231,7 +3255,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>44</v>
@@ -3240,19 +3264,21 @@
         <v>44</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>44</v>
       </c>
@@ -3288,43 +3314,43 @@
         <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AF14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AK14" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL14" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>44</v>
@@ -3332,11 +3358,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="C15" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3352,21 +3380,21 @@
         <v>44</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>44</v>
       </c>
@@ -3402,19 +3430,19 @@
         <v>44</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3426,19 +3454,19 @@
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL15" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>44</v>
@@ -3446,7 +3474,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3463,26 +3491,22 @@
         <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>44</v>
       </c>
@@ -3506,13 +3530,13 @@
         <v>44</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -3530,7 +3554,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3542,10 +3566,10 @@
         <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>44</v>
@@ -3554,7 +3578,7 @@
         <v>44</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>44</v>
@@ -3562,18 +3586,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>44</v>
@@ -3582,23 +3606,21 @@
         <v>44</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>44</v>
       </c>
@@ -3622,46 +3644,46 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>44</v>
@@ -3670,7 +3692,7 @@
         <v>44</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
@@ -3678,7 +3700,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3686,7 +3708,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>51</v>
@@ -3695,38 +3717,38 @@
         <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>44</v>
@@ -3738,13 +3760,13 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>44</v>
@@ -3762,7 +3784,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3777,7 +3799,7 @@
         <v>63</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>44</v>
@@ -3786,7 +3808,7 @@
         <v>44</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>44</v>
@@ -3794,7 +3816,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3802,7 +3824,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>51</v>
@@ -3817,18 +3839,20 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
       </c>
@@ -3840,7 +3864,7 @@
         <v>44</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>44</v>
@@ -3852,13 +3876,13 @@
         <v>44</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>44</v>
@@ -3876,7 +3900,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3891,7 +3915,7 @@
         <v>63</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>44</v>
@@ -3900,7 +3924,7 @@
         <v>44</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>44</v>
@@ -3908,7 +3932,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3916,7 +3940,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>51</v>
@@ -3931,28 +3955,32 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>44</v>
@@ -3988,7 +4016,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4003,7 +4031,7 @@
         <v>63</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>44</v>
@@ -4012,7 +4040,7 @@
         <v>44</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>44</v>
@@ -4020,7 +4048,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4028,7 +4056,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>51</v>
@@ -4043,16 +4071,16 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4066,7 +4094,7 @@
         <v>44</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>44</v>
@@ -4102,7 +4130,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4117,7 +4145,7 @@
         <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>44</v>
@@ -4126,7 +4154,7 @@
         <v>44</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
@@ -4134,11 +4162,9 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>44</v>
       </c>
@@ -4147,7 +4173,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>44</v>
@@ -4159,18 +4185,16 @@
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>119</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
@@ -4218,13 +4242,13 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>44</v>
@@ -4233,16 +4257,16 @@
         <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
@@ -4250,7 +4274,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4270,18 +4294,20 @@
         <v>44</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -4330,7 +4356,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4342,10 +4368,10 @@
         <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>44</v>
@@ -4354,7 +4380,7 @@
         <v>44</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -4362,11 +4388,13 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="C24" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4382,21 +4410,21 @@
         <v>44</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4432,19 +4460,19 @@
         <v>44</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4456,19 +4484,19 @@
         <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AK24" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL24" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -4476,7 +4504,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4493,26 +4521,22 @@
         <v>44</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
       </c>
@@ -4536,13 +4560,13 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
@@ -4560,7 +4584,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4572,10 +4596,10 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>44</v>
@@ -4584,7 +4608,7 @@
         <v>44</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4592,18 +4616,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
@@ -4612,23 +4636,21 @@
         <v>44</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>44</v>
       </c>
@@ -4652,46 +4674,46 @@
         <v>44</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>44</v>
@@ -4700,7 +4722,7 @@
         <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4708,7 +4730,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4716,7 +4738,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>51</v>
@@ -4725,38 +4747,38 @@
         <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>44</v>
@@ -4768,13 +4790,13 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
@@ -4792,7 +4814,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4807,7 +4829,7 @@
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>44</v>
@@ -4816,7 +4838,7 @@
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4824,7 +4846,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4832,7 +4854,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>51</v>
@@ -4847,18 +4869,20 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
       </c>
@@ -4870,7 +4894,7 @@
         <v>44</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>44</v>
@@ -4882,13 +4906,13 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -4906,7 +4930,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4921,7 +4945,7 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>44</v>
@@ -4930,7 +4954,7 @@
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4938,7 +4962,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4946,7 +4970,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>51</v>
@@ -4961,28 +4985,32 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>44</v>
@@ -5018,7 +5046,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -5033,7 +5061,7 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>44</v>
@@ -5042,7 +5070,7 @@
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -5050,7 +5078,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5058,7 +5086,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>51</v>
@@ -5073,16 +5101,16 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5096,7 +5124,7 @@
         <v>44</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>44</v>
@@ -5132,7 +5160,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5147,7 +5175,7 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>44</v>
@@ -5156,7 +5184,7 @@
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5164,11 +5192,9 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>44</v>
       </c>
@@ -5177,7 +5203,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -5189,18 +5215,16 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>119</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>44</v>
       </c>
@@ -5248,13 +5272,13 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
@@ -5263,16 +5287,16 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5280,7 +5304,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5300,18 +5324,20 @@
         <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5360,7 +5386,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5372,10 +5398,10 @@
         <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>44</v>
@@ -5384,7 +5410,7 @@
         <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -5392,11 +5418,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="C33" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5412,21 +5440,21 @@
         <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5462,19 +5490,19 @@
         <v>44</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5486,19 +5514,19 @@
         <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL33" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5506,7 +5534,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5523,26 +5551,22 @@
         <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5566,13 +5590,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5590,7 +5614,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5602,10 +5626,10 @@
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>44</v>
@@ -5614,7 +5638,7 @@
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5622,18 +5646,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>44</v>
@@ -5642,23 +5666,21 @@
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5682,46 +5704,46 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>44</v>
@@ -5730,7 +5752,7 @@
         <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5738,7 +5760,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5746,7 +5768,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>51</v>
@@ -5755,38 +5777,38 @@
         <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>44</v>
@@ -5798,13 +5820,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5822,7 +5844,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5837,7 +5859,7 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>44</v>
@@ -5846,7 +5868,7 @@
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5854,7 +5876,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5862,7 +5884,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>51</v>
@@ -5877,18 +5899,20 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
       </c>
@@ -5900,7 +5924,7 @@
         <v>44</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>44</v>
@@ -5912,13 +5936,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -5936,7 +5960,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5951,7 +5975,7 @@
         <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>44</v>
@@ -5960,7 +5984,7 @@
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5968,7 +5992,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5976,7 +6000,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>51</v>
@@ -5991,28 +6015,32 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>44</v>
@@ -6048,7 +6076,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6063,7 +6091,7 @@
         <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>44</v>
@@ -6072,7 +6100,7 @@
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -6080,7 +6108,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6088,7 +6116,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>51</v>
@@ -6103,16 +6131,16 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6126,7 +6154,7 @@
         <v>44</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>44</v>
@@ -6162,7 +6190,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6177,7 +6205,7 @@
         <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>44</v>
@@ -6186,7 +6214,7 @@
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -6194,7 +6222,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6211,32 +6239,26 @@
         <v>44</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P40" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6280,7 +6302,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6295,24 +6317,24 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6323,10 +6345,10 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>44</v>
@@ -6335,20 +6357,18 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6396,13 +6416,13 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>44</v>
@@ -6411,16 +6431,16 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6428,7 +6448,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6439,36 +6459,38 @@
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="Q42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6512,13 +6534,13 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>44</v>
@@ -6527,16 +6549,16 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6544,7 +6566,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6555,7 +6577,7 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>52</v>
@@ -6567,19 +6589,19 @@
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6604,13 +6626,13 @@
         <v>44</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>44</v>
@@ -6628,13 +6650,13 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
@@ -6643,24 +6665,24 @@
         <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6671,10 +6693,10 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>44</v>
@@ -6683,19 +6705,19 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6744,13 +6766,13 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
@@ -6759,24 +6781,24 @@
         <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6793,25 +6815,25 @@
         <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>243</v>
+        <v>71</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6836,13 +6858,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6860,7 +6882,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6875,24 +6897,24 @@
         <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6903,10 +6925,10 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>44</v>
@@ -6915,19 +6937,19 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6964,25 +6986,25 @@
         <v>44</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
@@ -6991,28 +7013,26 @@
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>44</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="B47" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7027,7 +7047,7 @@
         <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>52</v>
@@ -7100,7 +7120,7 @@
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
@@ -7109,16 +7129,16 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>259</v>
+        <v>139</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -7126,7 +7146,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7137,7 +7157,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -7146,19 +7166,23 @@
         <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>53</v>
+        <v>259</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>128</v>
+        <v>260</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7194,43 +7218,43 @@
         <v>44</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>44</v>
+        <v>265</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -7238,18 +7262,20 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="C49" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>44</v>
@@ -7258,21 +7284,23 @@
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7308,19 +7336,19 @@
         <v>44</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7332,19 +7360,19 @@
         <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -7352,7 +7380,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7360,7 +7388,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>51</v>
@@ -7369,38 +7397,34 @@
         <v>44</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>44</v>
@@ -7412,13 +7436,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7436,7 +7460,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>273</v>
+        <v>138</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7448,10 +7472,10 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>44</v>
@@ -7460,7 +7484,7 @@
         <v>44</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7468,18 +7492,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7488,19 +7512,19 @@
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>279</v>
+        <v>120</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7514,7 +7538,7 @@
         <v>44</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>44</v>
@@ -7526,46 +7550,46 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>283</v>
+        <v>144</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>44</v>
@@ -7574,7 +7598,7 @@
         <v>44</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7582,7 +7606,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7590,7 +7614,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>51</v>
@@ -7599,38 +7623,38 @@
         <v>44</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>44</v>
@@ -7642,13 +7666,13 @@
         <v>44</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>44</v>
@@ -7666,7 +7690,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7681,7 +7705,7 @@
         <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>44</v>
@@ -7690,7 +7714,7 @@
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7698,7 +7722,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7709,7 +7733,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7721,15 +7745,17 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7742,7 +7768,7 @@
         <v>44</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>44</v>
@@ -7754,13 +7780,13 @@
         <v>44</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>44</v>
@@ -7778,13 +7804,13 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
@@ -7793,7 +7819,7 @@
         <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>44</v>
@@ -7802,7 +7828,7 @@
         <v>44</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -7810,11 +7836,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7836,13 +7862,17 @@
         <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7854,7 +7884,7 @@
         <v>44</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>44</v>
@@ -7890,7 +7920,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7905,7 +7935,7 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
@@ -7914,7 +7944,7 @@
         <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -7922,18 +7952,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
@@ -7948,14 +7978,12 @@
         <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -7968,7 +7996,7 @@
         <v>44</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>44</v>
@@ -8004,13 +8032,13 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
@@ -8019,7 +8047,7 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>44</v>
@@ -8028,7 +8056,7 @@
         <v>44</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -8036,11 +8064,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8062,10 +8090,10 @@
         <v>53</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8080,7 +8108,7 @@
         <v>44</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>44</v>
@@ -8116,7 +8144,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8131,7 +8159,7 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>44</v>
@@ -8140,7 +8168,7 @@
         <v>44</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -8148,11 +8176,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8174,12 +8202,14 @@
         <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -8192,7 +8222,7 @@
         <v>44</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>44</v>
@@ -8228,7 +8258,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8243,7 +8273,7 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>44</v>
@@ -8252,7 +8282,7 @@
         <v>44</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8260,11 +8290,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8286,14 +8316,12 @@
         <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>44</v>
@@ -8342,7 +8370,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8357,7 +8385,7 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>44</v>
@@ -8366,7 +8394,7 @@
         <v>44</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8374,11 +8402,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8397,18 +8425,16 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>343</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8420,7 +8446,7 @@
         <v>44</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>44</v>
@@ -8456,7 +8482,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8471,7 +8497,7 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>44</v>
@@ -8480,7 +8506,7 @@
         <v>44</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8488,11 +8514,9 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8513,20 +8537,18 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>251</v>
+        <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8574,13 +8596,13 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>250</v>
+        <v>345</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>44</v>
@@ -8589,16 +8611,16 @@
         <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>258</v>
+        <v>346</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>260</v>
+        <v>347</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8606,7 +8628,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8626,19 +8648,21 @@
         <v>44</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>128</v>
+        <v>349</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>129</v>
+        <v>350</v>
       </c>
       <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
       </c>
@@ -8650,7 +8674,7 @@
         <v>44</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>44</v>
@@ -8686,7 +8710,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>130</v>
+        <v>353</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8698,10 +8722,10 @@
         <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>131</v>
+        <v>354</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>44</v>
@@ -8710,7 +8734,7 @@
         <v>44</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8718,18 +8742,20 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="C62" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
@@ -8738,21 +8764,23 @@
         <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8788,19 +8816,19 @@
         <v>44</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8812,19 +8840,19 @@
         <v>44</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>44</v>
@@ -8832,7 +8860,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8840,7 +8868,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>51</v>
@@ -8849,38 +8877,34 @@
         <v>44</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>44</v>
@@ -8892,13 +8916,13 @@
         <v>44</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>44</v>
@@ -8916,7 +8940,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>273</v>
+        <v>138</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8928,10 +8952,10 @@
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>44</v>
@@ -8940,7 +8964,7 @@
         <v>44</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>44</v>
@@ -8948,18 +8972,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>44</v>
@@ -8968,19 +8992,19 @@
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>279</v>
+        <v>120</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8994,7 +9018,7 @@
         <v>44</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>44</v>
@@ -9006,46 +9030,46 @@
         <v>44</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>283</v>
+        <v>144</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>44</v>
@@ -9054,7 +9078,7 @@
         <v>44</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>44</v>
@@ -9062,7 +9086,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9070,7 +9094,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>51</v>
@@ -9079,38 +9103,38 @@
         <v>44</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>44</v>
@@ -9122,13 +9146,13 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
@@ -9146,7 +9170,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9161,7 +9185,7 @@
         <v>63</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>44</v>
@@ -9170,7 +9194,7 @@
         <v>44</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>44</v>
@@ -9178,7 +9202,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9189,7 +9213,7 @@
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>44</v>
@@ -9201,15 +9225,17 @@
         <v>52</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
@@ -9222,7 +9248,7 @@
         <v>44</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>44</v>
@@ -9234,13 +9260,13 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>44</v>
@@ -9258,13 +9284,13 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
@@ -9273,7 +9299,7 @@
         <v>63</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>44</v>
@@ -9282,7 +9308,7 @@
         <v>44</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>44</v>
@@ -9290,11 +9316,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9316,13 +9342,17 @@
         <v>53</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9334,7 +9364,7 @@
         <v>44</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>44</v>
@@ -9370,7 +9400,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9385,7 +9415,7 @@
         <v>63</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>44</v>
@@ -9394,7 +9424,7 @@
         <v>44</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>44</v>
@@ -9402,18 +9432,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>44</v>
@@ -9428,14 +9458,12 @@
         <v>53</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
@@ -9448,7 +9476,7 @@
         <v>44</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>44</v>
@@ -9484,13 +9512,13 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>44</v>
@@ -9499,7 +9527,7 @@
         <v>63</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>44</v>
@@ -9508,7 +9536,7 @@
         <v>44</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>44</v>
@@ -9516,11 +9544,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9542,10 +9570,10 @@
         <v>53</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9560,7 +9588,7 @@
         <v>44</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>44</v>
@@ -9596,7 +9624,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9611,7 +9639,7 @@
         <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>44</v>
@@ -9620,7 +9648,7 @@
         <v>44</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -9628,11 +9656,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9654,12 +9682,14 @@
         <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>44</v>
@@ -9672,7 +9702,7 @@
         <v>44</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>44</v>
@@ -9708,7 +9738,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9723,7 +9753,7 @@
         <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>44</v>
@@ -9732,7 +9762,7 @@
         <v>44</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
@@ -9740,11 +9770,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9766,14 +9796,12 @@
         <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>44</v>
@@ -9822,7 +9850,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9837,7 +9865,7 @@
         <v>63</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>44</v>
@@ -9846,7 +9874,7 @@
         <v>44</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>44</v>
@@ -9854,11 +9882,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9877,18 +9905,16 @@
         <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>343</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>44</v>
       </c>
@@ -9900,7 +9926,7 @@
         <v>44</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>44</v>
@@ -9936,7 +9962,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9951,7 +9977,7 @@
         <v>63</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>44</v>
@@ -9960,7 +9986,7 @@
         <v>44</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>44</v>
@@ -9968,7 +9994,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9988,21 +10014,21 @@
         <v>44</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>44</v>
       </c>
@@ -10026,13 +10052,13 @@
         <v>44</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>353</v>
+        <v>44</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>354</v>
+        <v>44</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>44</v>
@@ -10050,7 +10076,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10065,16 +10091,16 @@
         <v>63</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>44</v>
@@ -10082,7 +10108,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10102,22 +10128,20 @@
         <v>44</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>359</v>
+        <v>185</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -10130,7 +10154,7 @@
         <v>44</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>44</v>
@@ -10166,7 +10190,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10181,16 +10205,16 @@
         <v>63</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>44</v>
@@ -10198,7 +10222,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10209,7 +10233,7 @@
         <v>42</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>44</v>
@@ -10221,19 +10245,17 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>367</v>
+        <v>156</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>44</v>
@@ -10258,13 +10280,13 @@
         <v>44</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>44</v>
+        <v>361</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
@@ -10282,13 +10304,13 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>44</v>
@@ -10297,16 +10319,16 @@
         <v>63</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>131</v>
+        <v>364</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>44</v>
@@ -10314,7 +10336,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10325,7 +10347,7 @@
         <v>42</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>44</v>
@@ -10337,19 +10359,19 @@
         <v>44</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>44</v>
@@ -10398,31 +10420,31 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>380</v>
+        <v>63</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>44</v>
+        <v>373</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>44</v>
@@ -10430,7 +10452,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10441,7 +10463,7 @@
         <v>42</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>44</v>
@@ -10453,16 +10475,20 @@
         <v>44</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>53</v>
+        <v>375</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>128</v>
+        <v>376</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>44</v>
       </c>
@@ -10510,31 +10536,31 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>130</v>
+        <v>374</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>131</v>
+        <v>380</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>44</v>
@@ -10542,11 +10568,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10565,18 +10591,20 @@
         <v>44</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>96</v>
+        <v>383</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>133</v>
+        <v>384</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>134</v>
+        <v>385</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>44</v>
       </c>
@@ -10624,7 +10652,7 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>136</v>
+        <v>382</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10636,13 +10664,13 @@
         <v>44</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>102</v>
+        <v>388</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>131</v>
+        <v>389</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>44</v>
@@ -10656,43 +10684,39 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>386</v>
+        <v>136</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>44</v>
       </c>
@@ -10740,22 +10764,22 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>388</v>
+        <v>138</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>44</v>
@@ -10772,11 +10796,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10795,18 +10819,18 @@
         <v>44</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>390</v>
+        <v>141</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>44</v>
       </c>
@@ -10830,13 +10854,13 @@
         <v>44</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>394</v>
+        <v>44</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>44</v>
@@ -10854,7 +10878,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>389</v>
+        <v>144</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10866,19 +10890,19 @@
         <v>44</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>395</v>
+        <v>139</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>396</v>
+        <v>44</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>44</v>
@@ -10886,40 +10910,42 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>44</v>
+        <v>393</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N81" t="s" s="2">
-        <v>400</v>
+        <v>121</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>44</v>
@@ -10968,31 +10994,31 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>401</v>
+        <v>44</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>44</v>
@@ -11000,7 +11026,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11023,19 +11049,17 @@
         <v>44</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>218</v>
+        <v>400</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>44</v>
@@ -11060,13 +11084,13 @@
         <v>44</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>44</v>
+        <v>401</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>44</v>
@@ -11084,7 +11108,7 @@
         <v>44</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11099,16 +11123,16 @@
         <v>63</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>219</v>
+        <v>403</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>44</v>
@@ -11116,7 +11140,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11139,17 +11163,17 @@
         <v>44</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>44</v>
@@ -11198,7 +11222,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11213,16 +11237,16 @@
         <v>63</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>44</v>
@@ -11230,7 +11254,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11241,7 +11265,7 @@
         <v>42</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>44</v>
@@ -11253,17 +11277,19 @@
         <v>44</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>71</v>
+        <v>222</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>223</v>
+        <v>411</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>414</v>
+        <v>226</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>44</v>
@@ -11288,13 +11314,13 @@
         <v>44</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>44</v>
@@ -11312,13 +11338,13 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>44</v>
@@ -11327,16 +11353,16 @@
         <v>63</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>44</v>
@@ -11344,7 +11370,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11367,17 +11393,17 @@
         <v>44</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>184</v>
+        <v>259</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>44</v>
@@ -11426,7 +11452,7 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11435,22 +11461,22 @@
         <v>51</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>420</v>
+        <v>44</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>421</v>
+        <v>266</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>44</v>
@@ -11458,7 +11484,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11481,16 +11507,18 @@
         <v>44</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>424</v>
+        <v>231</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>44</v>
       </c>
@@ -11514,13 +11542,13 @@
         <v>44</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>44</v>
@@ -11538,7 +11566,7 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11553,16 +11581,16 @@
         <v>63</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>426</v>
+        <v>237</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>44</v>
+        <v>423</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>44</v>
@@ -11570,7 +11598,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11581,7 +11609,7 @@
         <v>42</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>44</v>
@@ -11593,19 +11621,17 @@
         <v>44</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>375</v>
+        <v>192</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>44</v>
@@ -11654,31 +11680,31 @@
         <v>44</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>44</v>
+        <v>428</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>433</v>
+        <v>139</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>44</v>
@@ -11686,7 +11712,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11709,13 +11735,13 @@
         <v>44</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>128</v>
+        <v>432</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>129</v>
+        <v>433</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11766,7 +11792,7 @@
         <v>44</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>130</v>
+        <v>431</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11778,13 +11804,13 @@
         <v>44</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>131</v>
+        <v>434</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>44</v>
@@ -11802,7 +11828,7 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11821,18 +11847,20 @@
         <v>44</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>96</v>
+        <v>383</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>133</v>
+        <v>436</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>134</v>
+        <v>437</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>44</v>
       </c>
@@ -11880,7 +11908,7 @@
         <v>44</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>136</v>
+        <v>435</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11892,13 +11920,13 @@
         <v>44</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>131</v>
+        <v>440</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>44</v>
@@ -11912,43 +11940,39 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>386</v>
+        <v>136</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>44</v>
       </c>
@@ -11996,22 +12020,22 @@
         <v>44</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>388</v>
+        <v>138</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>44</v>
@@ -12028,18 +12052,18 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>44</v>
@@ -12051,20 +12075,18 @@
         <v>44</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>438</v>
+        <v>141</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>439</v>
+        <v>142</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>44</v>
       </c>
@@ -12088,13 +12110,13 @@
         <v>44</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>44</v>
@@ -12112,31 +12134,31 @@
         <v>44</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>437</v>
+        <v>144</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>442</v>
+        <v>139</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>443</v>
+        <v>44</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>444</v>
+        <v>44</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>44</v>
@@ -12144,42 +12166,42 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>44</v>
+        <v>393</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>448</v>
+        <v>120</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>449</v>
+        <v>121</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>44</v>
@@ -12228,31 +12250,31 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>450</v>
+        <v>94</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>451</v>
+        <v>44</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>452</v>
+        <v>44</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>44</v>
@@ -12260,18 +12282,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>454</v>
+        <v>44</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>44</v>
@@ -12283,18 +12305,20 @@
         <v>44</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>455</v>
+        <v>156</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>44</v>
       </c>
@@ -12318,13 +12342,13 @@
         <v>44</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>44</v>
@@ -12342,13 +12366,13 @@
         <v>44</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>44</v>
@@ -12357,16 +12381,16 @@
         <v>63</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>131</v>
+        <v>451</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>44</v>
@@ -12374,7 +12398,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12394,22 +12418,22 @@
         <v>44</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>44</v>
@@ -12458,7 +12482,7 @@
         <v>44</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12473,16 +12497,16 @@
         <v>63</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>421</v>
+        <v>458</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>44</v>
+        <v>460</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>44</v>
@@ -12490,11 +12514,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>44</v>
+        <v>462</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12507,26 +12531,24 @@
         <v>44</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>375</v>
+        <v>463</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>44</v>
       </c>
@@ -12574,7 +12596,7 @@
         <v>44</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12589,16 +12611,16 @@
         <v>63</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>44</v>
+        <v>468</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>44</v>
@@ -12606,7 +12628,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12626,19 +12648,23 @@
         <v>44</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>128</v>
+        <v>470</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>44</v>
       </c>
@@ -12686,7 +12712,7 @@
         <v>44</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>130</v>
+        <v>469</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -12698,13 +12724,13 @@
         <v>44</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>131</v>
+        <v>429</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>44</v>
+        <v>474</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>44</v>
@@ -12718,11 +12744,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12735,24 +12761,26 @@
         <v>44</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>96</v>
+        <v>383</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>134</v>
+        <v>477</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>44</v>
       </c>
@@ -12800,7 +12828,7 @@
         <v>44</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>136</v>
+        <v>475</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -12812,13 +12840,13 @@
         <v>44</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>131</v>
+        <v>480</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>44</v>
@@ -12832,43 +12860,39 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>386</v>
+        <v>136</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>44</v>
       </c>
@@ -12916,22 +12940,22 @@
         <v>44</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>388</v>
+        <v>138</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>44</v>
@@ -12948,18 +12972,18 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>44</v>
@@ -12968,19 +12992,19 @@
         <v>44</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>477</v>
+        <v>96</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>478</v>
+        <v>141</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>479</v>
+        <v>142</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13030,31 +13054,31 @@
         <v>44</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>476</v>
+        <v>144</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>481</v>
+        <v>44</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>44</v>
@@ -13062,39 +13086,43 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>44</v>
+        <v>393</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>483</v>
+        <v>394</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>44</v>
       </c>
@@ -13118,62 +13146,288 @@
         <v>44</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="X100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="Y100" t="s" s="2">
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J101" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="Z100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI100" t="s" s="2">
+      <c r="K101" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI101" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="AJ100" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN100" t="s" s="2">
+      <c r="AJ101" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN100">
+  <autoFilter ref="A1:AN102">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13183,7 +13437,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI99">
+  <conditionalFormatting sqref="A2:AI101">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -343,7 +343,7 @@
     <t>species</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/StructureDefinition/ethnicity}
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/ethnicity}
 </t>
   </si>
   <si>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$120</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="499">
   <si>
     <t>Path</t>
   </si>
@@ -649,6 +649,18 @@
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/InsuranceNumbers</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>https://basespecs.vn/NamingSystem/NationalIdentifiers</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>https://basespecs.vn/NamingSystem/POSIdentifiers</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -1707,7 +1719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN102"/>
+  <dimension ref="A1:AN120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6448,9 +6460,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6459,38 +6473,34 @@
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P42" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6534,13 +6544,13 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>44</v>
@@ -6549,24 +6559,24 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6577,32 +6587,28 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6650,31 +6656,31 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6682,11 +6688,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6702,23 +6708,21 @@
         <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6754,19 +6758,19 @@
         <v>44</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6778,19 +6782,19 @@
         <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6798,7 +6802,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6815,7 +6819,7 @@
         <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>52</v>
@@ -6824,16 +6828,16 @@
         <v>71</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6861,10 +6865,10 @@
         <v>150</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6882,7 +6886,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6897,24 +6901,24 @@
         <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>239</v>
+        <v>94</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6928,7 +6932,7 @@
         <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>44</v>
@@ -6937,19 +6941,19 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>243</v>
+        <v>158</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6974,13 +6978,13 @@
         <v>44</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>44</v>
@@ -6998,7 +7002,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7013,24 +7017,24 @@
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>249</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7038,7 +7042,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>51</v>
@@ -7047,38 +7051,38 @@
         <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>252</v>
+        <v>167</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>44</v>
@@ -7114,7 +7118,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7129,16 +7133,16 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -7146,7 +7150,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7154,10 +7158,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -7169,20 +7173,18 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>261</v>
+        <v>178</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7194,7 +7196,7 @@
         <v>44</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>44</v>
@@ -7218,25 +7220,25 @@
         <v>44</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>258</v>
+        <v>181</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
@@ -7245,16 +7247,16 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -7262,11 +7264,9 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7287,20 +7287,16 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7348,13 +7344,13 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
@@ -7363,16 +7359,16 @@
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -7380,7 +7376,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7400,18 +7396,20 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7460,7 +7458,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7472,10 +7470,10 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>44</v>
@@ -7484,7 +7482,7 @@
         <v>44</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7492,11 +7490,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="C51" t="s" s="2">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7512,21 +7512,21 @@
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7562,19 +7562,19 @@
         <v>44</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7586,19 +7586,19 @@
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7606,7 +7606,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>51</v>
@@ -7623,38 +7623,34 @@
         <v>44</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>44</v>
@@ -7666,13 +7662,13 @@
         <v>44</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>44</v>
@@ -7690,7 +7686,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>281</v>
+        <v>138</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7702,10 +7698,10 @@
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>44</v>
@@ -7714,7 +7710,7 @@
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7722,18 +7718,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>284</v>
+        <v>140</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7742,19 +7738,19 @@
         <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>285</v>
+        <v>141</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>287</v>
+        <v>120</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7768,7 +7764,7 @@
         <v>44</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>44</v>
@@ -7780,46 +7776,46 @@
         <v>44</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>291</v>
+        <v>144</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>44</v>
@@ -7828,7 +7824,7 @@
         <v>44</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>292</v>
+        <v>44</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -7836,7 +7832,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>293</v>
+        <v>145</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7853,25 +7849,25 @@
         <v>44</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>294</v>
+        <v>146</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>295</v>
+        <v>147</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>297</v>
+        <v>149</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7884,7 +7880,7 @@
         <v>44</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>44</v>
@@ -7896,13 +7892,13 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7920,7 +7916,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>299</v>
+        <v>153</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7935,7 +7931,7 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>300</v>
+        <v>154</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
@@ -7944,7 +7940,7 @@
         <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>301</v>
+        <v>94</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -7952,7 +7948,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7963,7 +7959,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
@@ -7975,16 +7971,20 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>303</v>
+        <v>157</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>44</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>305</v>
+        <v>44</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>44</v>
@@ -8008,13 +8008,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8032,13 +8032,13 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>306</v>
+        <v>164</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
@@ -8047,7 +8047,7 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>307</v>
+        <v>154</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>44</v>
@@ -8056,7 +8056,7 @@
         <v>44</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>308</v>
+        <v>165</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -8064,15 +8064,15 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>51</v>
@@ -8087,28 +8087,32 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>311</v>
+        <v>167</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>313</v>
+        <v>172</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>44</v>
@@ -8144,7 +8148,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>314</v>
+        <v>173</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8159,7 +8163,7 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>315</v>
+        <v>174</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>44</v>
@@ -8168,7 +8172,7 @@
         <v>44</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>316</v>
+        <v>175</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -8176,15 +8180,15 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>317</v>
+        <v>176</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>51</v>
@@ -8202,13 +8206,13 @@
         <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>319</v>
+        <v>177</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>320</v>
+        <v>178</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>321</v>
+        <v>179</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8222,7 +8226,7 @@
         <v>44</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>322</v>
+        <v>180</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>44</v>
@@ -8258,7 +8262,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>323</v>
+        <v>181</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8273,7 +8277,7 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>324</v>
+        <v>182</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>44</v>
@@ -8282,7 +8286,7 @@
         <v>44</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>325</v>
+        <v>183</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8290,11 +8294,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>326</v>
+        <v>184</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8313,13 +8317,13 @@
         <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>328</v>
+        <v>186</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>329</v>
+        <v>187</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8370,7 +8374,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>330</v>
+        <v>188</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8385,7 +8389,7 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>331</v>
+        <v>189</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>44</v>
@@ -8394,7 +8398,7 @@
         <v>44</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>332</v>
+        <v>190</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8402,11 +8406,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>333</v>
+        <v>191</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>334</v>
+        <v>44</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8425,15 +8429,17 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>335</v>
+        <v>193</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8446,7 +8452,7 @@
         <v>44</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>44</v>
@@ -8482,7 +8488,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>338</v>
+        <v>196</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8497,7 +8503,7 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>339</v>
+        <v>197</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>44</v>
@@ -8506,7 +8512,7 @@
         <v>44</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>340</v>
+        <v>198</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8514,7 +8520,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>341</v>
+        <v>207</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8531,28 +8537,32 @@
         <v>44</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>342</v>
+        <v>209</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>343</v>
+        <v>210</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="Q60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8596,7 +8606,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>345</v>
+        <v>207</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8611,24 +8621,24 @@
         <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>346</v>
+        <v>214</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>348</v>
+        <v>216</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8639,10 +8649,10 @@
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>44</v>
@@ -8651,17 +8661,19 @@
         <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>349</v>
+        <v>218</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N61" t="s" s="2">
-        <v>351</v>
+        <v>221</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8674,7 +8686,7 @@
         <v>44</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>352</v>
+        <v>44</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>44</v>
@@ -8710,13 +8722,13 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>353</v>
+        <v>216</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>44</v>
@@ -8725,16 +8737,16 @@
         <v>63</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>354</v>
+        <v>222</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>355</v>
+        <v>224</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8742,11 +8754,9 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8755,7 +8765,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
@@ -8767,19 +8777,19 @@
         <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
@@ -8828,7 +8838,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8843,16 +8853,16 @@
         <v>63</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>44</v>
@@ -8860,7 +8870,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8880,19 +8890,23 @@
         <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -8916,13 +8930,13 @@
         <v>44</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>44</v>
@@ -8940,7 +8954,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8952,61 +8966,63 @@
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>139</v>
+        <v>241</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>96</v>
+        <v>245</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>141</v>
+        <v>246</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -9042,51 +9058,51 @@
         <v>44</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>44</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9094,7 +9110,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>51</v>
@@ -9109,32 +9125,32 @@
         <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>44</v>
@@ -9146,13 +9162,13 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
@@ -9170,7 +9186,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9185,16 +9201,16 @@
         <v>63</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>44</v>
@@ -9202,7 +9218,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9213,7 +9229,7 @@
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>44</v>
@@ -9225,18 +9241,20 @@
         <v>52</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>44</v>
       </c>
@@ -9248,7 +9266,7 @@
         <v>44</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>44</v>
@@ -9260,37 +9278,37 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>44</v>
+        <v>269</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
@@ -9299,16 +9317,16 @@
         <v>63</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>44</v>
+        <v>271</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>44</v>
@@ -9316,9 +9334,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="C67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9339,19 +9359,19 @@
         <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>53</v>
+        <v>263</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>44</v>
@@ -9364,7 +9384,7 @@
         <v>44</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>44</v>
@@ -9400,13 +9420,13 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
@@ -9415,16 +9435,16 @@
         <v>63</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>44</v>
+        <v>271</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>44</v>
@@ -9432,7 +9452,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9443,7 +9463,7 @@
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>44</v>
@@ -9452,16 +9472,16 @@
         <v>44</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>303</v>
+        <v>136</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>304</v>
+        <v>137</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9476,7 +9496,7 @@
         <v>44</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>305</v>
+        <v>44</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>44</v>
@@ -9512,22 +9532,22 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>306</v>
+        <v>138</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>307</v>
+        <v>139</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>44</v>
@@ -9536,7 +9556,7 @@
         <v>44</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>308</v>
+        <v>44</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>44</v>
@@ -9544,18 +9564,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>310</v>
+        <v>117</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>44</v>
@@ -9564,18 +9584,20 @@
         <v>44</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>44</v>
@@ -9588,7 +9610,7 @@
         <v>44</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>44</v>
@@ -9612,34 +9634,34 @@
         <v>44</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>314</v>
+        <v>144</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>315</v>
+        <v>139</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>44</v>
@@ -9648,7 +9670,7 @@
         <v>44</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -9656,15 +9678,15 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>51</v>
@@ -9673,36 +9695,38 @@
         <v>44</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>44</v>
@@ -9714,13 +9738,13 @@
         <v>44</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>44</v>
@@ -9738,7 +9762,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9753,7 +9777,7 @@
         <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>44</v>
@@ -9762,7 +9786,7 @@
         <v>44</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
@@ -9770,11 +9794,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9793,15 +9817,17 @@
         <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>44</v>
@@ -9814,7 +9840,7 @@
         <v>44</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>44</v>
@@ -9826,13 +9852,13 @@
         <v>44</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>44</v>
@@ -9850,7 +9876,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9865,7 +9891,7 @@
         <v>63</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>44</v>
@@ -9874,7 +9900,7 @@
         <v>44</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>44</v>
@@ -9882,11 +9908,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>334</v>
+        <v>44</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9908,13 +9934,17 @@
         <v>53</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>44</v>
       </c>
@@ -9926,7 +9956,7 @@
         <v>44</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>44</v>
@@ -9962,7 +9992,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9977,7 +10007,7 @@
         <v>63</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>44</v>
@@ -9986,7 +10016,7 @@
         <v>44</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>44</v>
@@ -9994,7 +10024,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10005,7 +10035,7 @@
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>44</v>
@@ -10020,14 +10050,12 @@
         <v>53</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>44</v>
@@ -10040,7 +10068,7 @@
         <v>44</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>44</v>
@@ -10076,13 +10104,13 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>44</v>
@@ -10091,7 +10119,7 @@
         <v>63</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>44</v>
@@ -10100,7 +10128,7 @@
         <v>44</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>44</v>
@@ -10108,11 +10136,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10131,18 +10159,16 @@
         <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>44</v>
       </c>
@@ -10154,7 +10180,7 @@
         <v>44</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>44</v>
@@ -10190,7 +10216,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10205,7 +10231,7 @@
         <v>63</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>44</v>
@@ -10214,7 +10240,7 @@
         <v>44</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>44</v>
@@ -10222,11 +10248,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10242,21 +10268,21 @@
         <v>44</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>44</v>
       </c>
@@ -10268,7 +10294,7 @@
         <v>44</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>44</v>
@@ -10280,13 +10306,13 @@
         <v>44</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>361</v>
+        <v>44</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>362</v>
+        <v>44</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
@@ -10304,7 +10330,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10319,16 +10345,16 @@
         <v>63</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>364</v>
+        <v>44</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>44</v>
@@ -10336,11 +10362,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10356,23 +10382,19 @@
         <v>44</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>367</v>
+        <v>53</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>44</v>
       </c>
@@ -10420,7 +10442,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10435,16 +10457,16 @@
         <v>63</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>44</v>
@@ -10452,18 +10474,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>44</v>
@@ -10472,23 +10494,19 @@
         <v>44</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>375</v>
+        <v>53</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>44</v>
       </c>
@@ -10500,7 +10518,7 @@
         <v>44</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>44</v>
@@ -10536,13 +10554,13 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>44</v>
@@ -10551,16 +10569,16 @@
         <v>63</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>44</v>
@@ -10568,7 +10586,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10579,7 +10597,7 @@
         <v>42</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>44</v>
@@ -10588,23 +10606,21 @@
         <v>44</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>383</v>
+        <v>53</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>44</v>
       </c>
@@ -10652,31 +10668,31 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>388</v>
+        <v>63</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>44</v>
+        <v>351</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>44</v>
@@ -10684,7 +10700,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10704,19 +10720,21 @@
         <v>44</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>136</v>
+        <v>353</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>137</v>
+        <v>354</v>
       </c>
       <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>44</v>
       </c>
@@ -10728,7 +10746,7 @@
         <v>44</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>44</v>
@@ -10764,7 +10782,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>138</v>
+        <v>357</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10776,10 +10794,10 @@
         <v>44</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>139</v>
+        <v>358</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>44</v>
@@ -10788,7 +10806,7 @@
         <v>44</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>44</v>
@@ -10796,18 +10814,20 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="C80" t="s" s="2">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>44</v>
@@ -10816,21 +10836,23 @@
         <v>44</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>96</v>
+        <v>263</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>141</v>
+        <v>264</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>44</v>
       </c>
@@ -10878,7 +10900,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10890,19 +10912,19 @@
         <v>44</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>44</v>
+        <v>271</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>44</v>
@@ -10910,43 +10932,39 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>392</v>
+        <v>274</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>394</v>
+        <v>136</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>44</v>
       </c>
@@ -10994,22 +11012,22 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>396</v>
+        <v>138</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>44</v>
@@ -11026,11 +11044,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>397</v>
+        <v>275</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11049,18 +11067,18 @@
         <v>44</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>398</v>
+        <v>141</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>44</v>
       </c>
@@ -11084,31 +11102,31 @@
         <v>44</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>401</v>
+        <v>44</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>402</v>
+        <v>44</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>397</v>
+        <v>144</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11120,19 +11138,19 @@
         <v>44</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>403</v>
+        <v>139</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>404</v>
+        <v>44</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>44</v>
@@ -11140,7 +11158,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>405</v>
+        <v>276</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11148,7 +11166,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>51</v>
@@ -11157,36 +11175,38 @@
         <v>44</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>406</v>
+        <v>277</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="N83" t="s" s="2">
-        <v>408</v>
+        <v>280</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>44</v>
@@ -11198,13 +11218,13 @@
         <v>44</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>44</v>
@@ -11222,7 +11242,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>405</v>
+        <v>285</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11237,16 +11257,16 @@
         <v>63</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>409</v>
+        <v>287</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>44</v>
@@ -11254,7 +11274,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>410</v>
+        <v>288</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11265,7 +11285,7 @@
         <v>42</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>44</v>
@@ -11274,23 +11294,21 @@
         <v>44</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>222</v>
+        <v>71</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>411</v>
+        <v>289</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>412</v>
+        <v>290</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>44</v>
       </c>
@@ -11302,7 +11320,7 @@
         <v>44</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>44</v>
@@ -11314,13 +11332,13 @@
         <v>44</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>44</v>
@@ -11338,13 +11356,13 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>410</v>
+        <v>295</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>44</v>
@@ -11353,16 +11371,16 @@
         <v>63</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>414</v>
+        <v>296</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>44</v>
@@ -11370,7 +11388,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>415</v>
+        <v>297</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11390,20 +11408,22 @@
         <v>44</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>416</v>
+        <v>298</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="N85" t="s" s="2">
-        <v>418</v>
+        <v>301</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>44</v>
@@ -11416,7 +11436,7 @@
         <v>44</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>44</v>
@@ -11452,7 +11472,7 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>415</v>
+        <v>303</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11467,16 +11487,16 @@
         <v>63</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>419</v>
+        <v>305</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>44</v>
@@ -11484,7 +11504,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>420</v>
+        <v>306</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11495,7 +11515,7 @@
         <v>42</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>44</v>
@@ -11504,21 +11524,19 @@
         <v>44</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>421</v>
+        <v>308</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>422</v>
-      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>44</v>
       </c>
@@ -11530,7 +11548,7 @@
         <v>44</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>44</v>
@@ -11542,13 +11560,13 @@
         <v>44</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>235</v>
+        <v>44</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>44</v>
@@ -11566,13 +11584,13 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>44</v>
@@ -11581,16 +11599,16 @@
         <v>63</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>423</v>
+        <v>312</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>44</v>
@@ -11598,11 +11616,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>424</v>
+        <v>313</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11618,21 +11636,19 @@
         <v>44</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>425</v>
+        <v>315</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>426</v>
+        <v>316</v>
       </c>
       <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>427</v>
-      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>44</v>
       </c>
@@ -11644,7 +11660,7 @@
         <v>44</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>44</v>
@@ -11680,7 +11696,7 @@
         <v>44</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>424</v>
+        <v>318</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11689,22 +11705,22 @@
         <v>51</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>428</v>
+        <v>44</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>429</v>
+        <v>319</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>44</v>
@@ -11712,11 +11728,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>431</v>
+        <v>321</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11732,18 +11748,20 @@
         <v>44</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>432</v>
+        <v>323</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>44</v>
@@ -11756,7 +11774,7 @@
         <v>44</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>44</v>
@@ -11792,7 +11810,7 @@
         <v>44</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>431</v>
+        <v>327</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11807,16 +11825,16 @@
         <v>63</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>434</v>
+        <v>328</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>44</v>
@@ -11824,18 +11842,18 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>435</v>
+        <v>330</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>44</v>
@@ -11844,23 +11862,19 @@
         <v>44</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>383</v>
+        <v>53</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>436</v>
+        <v>332</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>44</v>
       </c>
@@ -11908,13 +11922,13 @@
         <v>44</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>435</v>
+        <v>334</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>44</v>
@@ -11923,16 +11937,16 @@
         <v>63</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>440</v>
+        <v>335</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>441</v>
+        <v>44</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>44</v>
@@ -11940,11 +11954,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>442</v>
+        <v>337</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11960,16 +11974,16 @@
         <v>44</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>136</v>
+        <v>339</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>137</v>
+        <v>340</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11984,7 +11998,7 @@
         <v>44</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>44</v>
@@ -12020,7 +12034,7 @@
         <v>44</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>138</v>
+        <v>342</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12032,10 +12046,10 @@
         <v>44</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>139</v>
+        <v>343</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>44</v>
@@ -12044,7 +12058,7 @@
         <v>44</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>44</v>
@@ -12052,18 +12066,18 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>443</v>
+        <v>345</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>44</v>
@@ -12072,19 +12086,19 @@
         <v>44</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>141</v>
+        <v>346</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>142</v>
+        <v>347</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>120</v>
+        <v>348</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12134,22 +12148,22 @@
         <v>44</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>144</v>
+        <v>349</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>139</v>
+        <v>350</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>44</v>
@@ -12158,7 +12172,7 @@
         <v>44</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>44</v>
+        <v>351</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>44</v>
@@ -12166,42 +12180,40 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>444</v>
+        <v>352</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>121</v>
+        <v>355</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>44</v>
@@ -12214,7 +12226,7 @@
         <v>44</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>44</v>
@@ -12250,22 +12262,22 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>94</v>
+        <v>358</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>44</v>
@@ -12274,7 +12286,7 @@
         <v>44</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>44</v>
@@ -12282,7 +12294,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>445</v>
+        <v>361</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12290,7 +12302,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>51</v>
@@ -12308,16 +12320,14 @@
         <v>156</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>446</v>
+        <v>362</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" t="s" s="2">
-        <v>449</v>
+        <v>364</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>44</v>
@@ -12342,13 +12352,13 @@
         <v>44</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>44</v>
@@ -12366,10 +12376,10 @@
         <v>44</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>445</v>
+        <v>361</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>51</v>
@@ -12381,16 +12391,16 @@
         <v>63</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>450</v>
+        <v>367</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>451</v>
+        <v>368</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>452</v>
+        <v>369</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>44</v>
@@ -12398,7 +12408,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>453</v>
+        <v>370</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12421,19 +12431,19 @@
         <v>44</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>204</v>
+        <v>371</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>454</v>
+        <v>372</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>455</v>
+        <v>373</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>456</v>
+        <v>374</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>457</v>
+        <v>375</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>44</v>
@@ -12482,7 +12492,7 @@
         <v>44</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>453</v>
+        <v>370</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12497,16 +12507,16 @@
         <v>63</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>458</v>
+        <v>376</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>459</v>
+        <v>139</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>460</v>
+        <v>377</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>44</v>
@@ -12514,11 +12524,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>461</v>
+        <v>378</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>462</v>
+        <v>44</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12537,18 +12547,20 @@
         <v>44</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>463</v>
+        <v>379</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>464</v>
+        <v>380</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>465</v>
+        <v>381</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>44</v>
       </c>
@@ -12596,7 +12608,7 @@
         <v>44</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>461</v>
+        <v>378</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12611,7 +12623,7 @@
         <v>63</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>139</v>
@@ -12620,7 +12632,7 @@
         <v>44</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>468</v>
+        <v>385</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>44</v>
@@ -12628,7 +12640,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>469</v>
+        <v>386</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12639,7 +12651,7 @@
         <v>42</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>44</v>
@@ -12648,22 +12660,22 @@
         <v>44</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>192</v>
+        <v>387</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>470</v>
+        <v>388</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>471</v>
+        <v>389</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>472</v>
+        <v>390</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>473</v>
+        <v>391</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>44</v>
@@ -12712,25 +12724,25 @@
         <v>44</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>469</v>
+        <v>386</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>63</v>
+        <v>392</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>474</v>
+        <v>139</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>44</v>
@@ -12744,7 +12756,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>475</v>
+        <v>394</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12755,32 +12767,28 @@
         <v>42</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>383</v>
+        <v>53</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>476</v>
+        <v>136</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>44</v>
       </c>
@@ -12828,25 +12836,25 @@
         <v>44</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>475</v>
+        <v>138</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>480</v>
+        <v>139</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>44</v>
@@ -12860,18 +12868,18 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>481</v>
+        <v>395</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>44</v>
@@ -12883,15 +12891,17 @@
         <v>44</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>44</v>
@@ -12940,19 +12950,19 @@
         <v>44</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>139</v>
@@ -12972,11 +12982,11 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>482</v>
+        <v>396</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>117</v>
+        <v>397</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12989,24 +12999,26 @@
         <v>44</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>141</v>
+        <v>398</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>142</v>
+        <v>399</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="N99" s="2"/>
+      <c r="N99" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>44</v>
       </c>
@@ -13054,7 +13066,7 @@
         <v>44</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>144</v>
+        <v>400</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -13069,7 +13081,7 @@
         <v>102</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>44</v>
@@ -13086,11 +13098,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>483</v>
+        <v>401</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13103,25 +13115,23 @@
         <v>44</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" t="s" s="2">
-        <v>121</v>
+        <v>404</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>44</v>
@@ -13146,13 +13156,13 @@
         <v>44</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>44</v>
+        <v>406</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>44</v>
@@ -13170,7 +13180,7 @@
         <v>44</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13182,19 +13192,19 @@
         <v>44</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>94</v>
+        <v>407</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>44</v>
+        <v>408</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>44</v>
@@ -13202,7 +13212,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>484</v>
+        <v>409</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13210,7 +13220,7 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>51</v>
@@ -13222,21 +13232,21 @@
         <v>44</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>485</v>
+        <v>217</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>486</v>
+        <v>410</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>44</v>
       </c>
@@ -13284,10 +13294,10 @@
         <v>44</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>484</v>
+        <v>409</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>51</v>
@@ -13299,7 +13309,7 @@
         <v>63</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>139</v>
@@ -13308,7 +13318,7 @@
         <v>44</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>489</v>
+        <v>413</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>44</v>
@@ -13316,7 +13326,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>490</v>
+        <v>414</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13324,10 +13334,10 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>44</v>
@@ -13336,19 +13346,23 @@
         <v>44</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>491</v>
+        <v>415</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>44</v>
       </c>
@@ -13372,13 +13386,13 @@
         <v>44</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>492</v>
+        <v>44</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>493</v>
+        <v>44</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>44</v>
@@ -13396,13 +13410,13 @@
         <v>44</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>490</v>
+        <v>414</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>44</v>
@@ -13411,7 +13425,7 @@
         <v>63</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>494</v>
+        <v>231</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>139</v>
@@ -13420,14 +13434,2072 @@
         <v>44</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>44</v>
+        <v>418</v>
       </c>
       <c r="AN102" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN120" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN102">
+  <autoFilter ref="A1:AN120">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13437,7 +15509,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI101">
+  <conditionalFormatting sqref="A2:AI119">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$102</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="495">
   <si>
     <t>Path</t>
   </si>
@@ -649,18 +649,6 @@
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/InsuranceNumbers</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>https://basespecs.vn/NamingSystem/NationalIdentifiers</t>
-  </si>
-  <si>
-    <t>pos</t>
-  </si>
-  <si>
-    <t>https://basespecs.vn/NamingSystem/POSIdentifiers</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -1719,7 +1707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN120"/>
+  <dimension ref="A1:AN102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6460,11 +6448,9 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B42" t="s" s="2">
         <v>203</v>
       </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6473,34 +6459,38 @@
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="N42" t="s" s="2">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="Q42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6544,13 +6534,13 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>44</v>
@@ -6559,24 +6549,24 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6587,28 +6577,32 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6656,31 +6650,31 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6688,11 +6682,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6708,21 +6702,23 @@
         <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6758,19 +6754,19 @@
         <v>44</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6782,19 +6778,19 @@
         <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6802,7 +6798,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6819,7 +6815,7 @@
         <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>52</v>
@@ -6828,16 +6824,16 @@
         <v>71</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6865,10 +6861,10 @@
         <v>150</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6886,7 +6882,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6901,24 +6897,24 @@
         <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6932,7 +6928,7 @@
         <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>44</v>
@@ -6941,19 +6937,19 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>159</v>
+        <v>244</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6978,13 +6974,13 @@
         <v>44</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>44</v>
@@ -7002,7 +6998,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7017,24 +7013,24 @@
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>154</v>
+        <v>246</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>44</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7042,7 +7038,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>51</v>
@@ -7051,38 +7047,38 @@
         <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>65</v>
+        <v>251</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>167</v>
+        <v>252</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>44</v>
@@ -7118,7 +7114,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7133,16 +7129,16 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -7150,7 +7146,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7158,10 +7154,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -7173,18 +7169,20 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>53</v>
+        <v>259</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7196,7 +7194,7 @@
         <v>44</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>44</v>
@@ -7220,25 +7218,25 @@
         <v>44</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>44</v>
+        <v>265</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
@@ -7247,16 +7245,16 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -7264,9 +7262,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7287,16 +7287,20 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7344,13 +7348,13 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
@@ -7359,16 +7363,16 @@
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -7376,7 +7380,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7396,20 +7400,18 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7458,7 +7460,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7470,10 +7472,10 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>44</v>
@@ -7482,7 +7484,7 @@
         <v>44</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7490,13 +7492,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7512,21 +7512,21 @@
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7562,19 +7562,19 @@
         <v>44</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7586,19 +7586,19 @@
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7606,7 +7606,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>51</v>
@@ -7623,34 +7623,38 @@
         <v>44</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>136</v>
+        <v>273</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>44</v>
@@ -7662,13 +7666,13 @@
         <v>44</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>44</v>
@@ -7686,7 +7690,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>138</v>
+        <v>281</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7698,10 +7702,10 @@
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>44</v>
@@ -7710,7 +7714,7 @@
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7718,18 +7722,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7738,19 +7742,19 @@
         <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>142</v>
+        <v>286</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>120</v>
+        <v>287</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7764,7 +7768,7 @@
         <v>44</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>44</v>
@@ -7776,46 +7780,46 @@
         <v>44</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>144</v>
+        <v>291</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>44</v>
@@ -7824,7 +7828,7 @@
         <v>44</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -7832,7 +7836,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>145</v>
+        <v>293</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7849,25 +7853,25 @@
         <v>44</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>146</v>
+        <v>294</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>149</v>
+        <v>297</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7880,7 +7884,7 @@
         <v>44</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>44</v>
@@ -7892,13 +7896,13 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7916,7 +7920,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>153</v>
+        <v>299</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7931,7 +7935,7 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
@@ -7940,7 +7944,7 @@
         <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -7948,7 +7952,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7959,7 +7963,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
@@ -7971,20 +7975,16 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>157</v>
+        <v>303</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>44</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>44</v>
@@ -8008,13 +8008,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8032,13 +8032,13 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>164</v>
+        <v>306</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
@@ -8047,7 +8047,7 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>154</v>
+        <v>307</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>44</v>
@@ -8056,7 +8056,7 @@
         <v>44</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>165</v>
+        <v>308</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -8064,15 +8064,15 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>166</v>
+        <v>309</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>44</v>
+        <v>310</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>51</v>
@@ -8087,32 +8087,28 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>167</v>
+        <v>311</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>172</v>
+        <v>313</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>44</v>
@@ -8148,7 +8144,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>173</v>
+        <v>314</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8163,7 +8159,7 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>44</v>
@@ -8172,7 +8168,7 @@
         <v>44</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>175</v>
+        <v>316</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -8180,15 +8176,15 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>176</v>
+        <v>317</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>51</v>
@@ -8206,13 +8202,13 @@
         <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>177</v>
+        <v>319</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>178</v>
+        <v>320</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>179</v>
+        <v>321</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8226,7 +8222,7 @@
         <v>44</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>180</v>
+        <v>322</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>44</v>
@@ -8262,7 +8258,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>181</v>
+        <v>323</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8277,7 +8273,7 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>182</v>
+        <v>324</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>44</v>
@@ -8286,7 +8282,7 @@
         <v>44</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>183</v>
+        <v>325</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8294,11 +8290,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>184</v>
+        <v>326</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8317,13 +8313,13 @@
         <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>186</v>
+        <v>328</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>187</v>
+        <v>329</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8374,7 +8370,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>188</v>
+        <v>330</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8389,7 +8385,7 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>189</v>
+        <v>331</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>44</v>
@@ -8398,7 +8394,7 @@
         <v>44</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>190</v>
+        <v>332</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8406,11 +8402,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>191</v>
+        <v>333</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8429,17 +8425,15 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>193</v>
+        <v>335</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8452,7 +8446,7 @@
         <v>44</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>44</v>
@@ -8488,7 +8482,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>196</v>
+        <v>338</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8503,7 +8497,7 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>197</v>
+        <v>339</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>44</v>
@@ -8512,7 +8506,7 @@
         <v>44</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>198</v>
+        <v>340</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8520,7 +8514,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>207</v>
+        <v>341</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8537,32 +8531,28 @@
         <v>44</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>209</v>
+        <v>342</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>210</v>
+        <v>343</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P60" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8606,7 +8596,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>207</v>
+        <v>345</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8621,24 +8611,24 @@
         <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>214</v>
+        <v>346</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>216</v>
+        <v>348</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8649,10 +8639,10 @@
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>44</v>
@@ -8661,19 +8651,17 @@
         <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>218</v>
+        <v>349</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>221</v>
+        <v>351</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8686,7 +8674,7 @@
         <v>44</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>44</v>
@@ -8722,13 +8710,13 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>216</v>
+        <v>353</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>44</v>
@@ -8737,16 +8725,16 @@
         <v>63</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>222</v>
+        <v>354</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>224</v>
+        <v>355</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8754,9 +8742,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8765,7 +8755,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
@@ -8777,19 +8767,19 @@
         <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
@@ -8838,7 +8828,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8853,16 +8843,16 @@
         <v>63</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>44</v>
@@ -8870,7 +8860,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8890,23 +8880,19 @@
         <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -8930,13 +8916,13 @@
         <v>44</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>44</v>
@@ -8954,7 +8940,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>234</v>
+        <v>138</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8966,63 +8952,61 @@
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>245</v>
+        <v>96</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>247</v>
+        <v>142</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -9058,51 +9042,51 @@
         <v>44</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>253</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9110,7 +9094,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>51</v>
@@ -9125,32 +9109,32 @@
         <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>44</v>
@@ -9162,13 +9146,13 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
@@ -9186,7 +9170,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9201,16 +9185,16 @@
         <v>63</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>44</v>
@@ -9218,7 +9202,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9229,7 +9213,7 @@
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>44</v>
@@ -9241,20 +9225,18 @@
         <v>52</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>263</v>
+        <v>71</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
       </c>
@@ -9266,7 +9248,7 @@
         <v>44</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>44</v>
@@ -9278,37 +9260,37 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
@@ -9317,16 +9299,16 @@
         <v>63</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>44</v>
@@ -9334,11 +9316,9 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9359,19 +9339,19 @@
         <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>263</v>
+        <v>53</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>44</v>
@@ -9384,7 +9364,7 @@
         <v>44</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>44</v>
@@ -9420,13 +9400,13 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
@@ -9435,16 +9415,16 @@
         <v>63</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>44</v>
@@ -9452,7 +9432,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9463,7 +9443,7 @@
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>44</v>
@@ -9472,16 +9452,16 @@
         <v>44</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>136</v>
+        <v>303</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>137</v>
+        <v>304</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9496,7 +9476,7 @@
         <v>44</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>44</v>
@@ -9532,22 +9512,22 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>138</v>
+        <v>306</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>139</v>
+        <v>307</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>44</v>
@@ -9556,7 +9536,7 @@
         <v>44</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>44</v>
@@ -9564,18 +9544,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>117</v>
+        <v>310</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>44</v>
@@ -9584,20 +9564,18 @@
         <v>44</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>141</v>
+        <v>311</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>44</v>
@@ -9610,7 +9588,7 @@
         <v>44</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>44</v>
@@ -9634,34 +9612,34 @@
         <v>44</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>144</v>
+        <v>314</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>139</v>
+        <v>315</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>44</v>
@@ -9670,7 +9648,7 @@
         <v>44</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -9678,15 +9656,15 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>51</v>
@@ -9695,38 +9673,36 @@
         <v>44</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>44</v>
@@ -9738,13 +9714,13 @@
         <v>44</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>44</v>
@@ -9762,7 +9738,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9777,7 +9753,7 @@
         <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>44</v>
@@ -9786,7 +9762,7 @@
         <v>44</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
@@ -9794,11 +9770,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9817,17 +9793,15 @@
         <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>44</v>
@@ -9840,7 +9814,7 @@
         <v>44</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>292</v>
+        <v>44</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>44</v>
@@ -9852,13 +9826,13 @@
         <v>44</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>293</v>
+        <v>44</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>44</v>
@@ -9876,7 +9850,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9891,7 +9865,7 @@
         <v>63</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>44</v>
@@ -9900,7 +9874,7 @@
         <v>44</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>44</v>
@@ -9908,11 +9882,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9934,17 +9908,13 @@
         <v>53</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>44</v>
       </c>
@@ -9956,7 +9926,7 @@
         <v>44</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>44</v>
@@ -9992,7 +9962,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10007,7 +9977,7 @@
         <v>63</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>44</v>
@@ -10016,7 +9986,7 @@
         <v>44</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>44</v>
@@ -10024,7 +9994,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10035,7 +10005,7 @@
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>44</v>
@@ -10050,12 +10020,14 @@
         <v>53</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>44</v>
@@ -10068,7 +10040,7 @@
         <v>44</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>309</v>
+        <v>44</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>44</v>
@@ -10104,13 +10076,13 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>44</v>
@@ -10119,7 +10091,7 @@
         <v>63</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>44</v>
@@ -10128,7 +10100,7 @@
         <v>44</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>44</v>
@@ -10136,11 +10108,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10159,16 +10131,18 @@
         <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>44</v>
       </c>
@@ -10180,7 +10154,7 @@
         <v>44</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>44</v>
@@ -10216,7 +10190,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10231,7 +10205,7 @@
         <v>63</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>44</v>
@@ -10240,7 +10214,7 @@
         <v>44</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>44</v>
@@ -10248,11 +10222,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>322</v>
+        <v>44</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10268,21 +10242,21 @@
         <v>44</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>44</v>
       </c>
@@ -10294,7 +10268,7 @@
         <v>44</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>326</v>
+        <v>44</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>44</v>
@@ -10306,13 +10280,13 @@
         <v>44</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>44</v>
+        <v>361</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
@@ -10330,7 +10304,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10345,16 +10319,16 @@
         <v>63</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>44</v>
+        <v>364</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>44</v>
@@ -10362,11 +10336,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>331</v>
+        <v>44</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10382,19 +10356,23 @@
         <v>44</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>53</v>
+        <v>367</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>44</v>
       </c>
@@ -10442,7 +10420,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10457,16 +10435,16 @@
         <v>63</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>44</v>
@@ -10474,18 +10452,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>338</v>
+        <v>44</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>44</v>
@@ -10494,19 +10472,23 @@
         <v>44</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>53</v>
+        <v>375</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>44</v>
       </c>
@@ -10518,7 +10500,7 @@
         <v>44</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>341</v>
+        <v>44</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>44</v>
@@ -10554,13 +10536,13 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>44</v>
@@ -10569,16 +10551,16 @@
         <v>63</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>44</v>
@@ -10586,7 +10568,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10597,7 +10579,7 @@
         <v>42</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>44</v>
@@ -10606,21 +10588,23 @@
         <v>44</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>53</v>
+        <v>383</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>44</v>
       </c>
@@ -10668,31 +10652,31 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>63</v>
+        <v>388</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>351</v>
+        <v>44</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>44</v>
@@ -10700,7 +10684,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10720,21 +10704,19 @@
         <v>44</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>353</v>
+        <v>136</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>354</v>
+        <v>137</v>
       </c>
       <c r="M79" s="2"/>
-      <c r="N79" t="s" s="2">
-        <v>355</v>
-      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>44</v>
       </c>
@@ -10746,7 +10728,7 @@
         <v>44</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>44</v>
@@ -10782,7 +10764,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10794,10 +10776,10 @@
         <v>44</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>358</v>
+        <v>139</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>44</v>
@@ -10806,7 +10788,7 @@
         <v>44</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>359</v>
+        <v>44</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>44</v>
@@ -10814,20 +10796,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>44</v>
@@ -10836,23 +10816,21 @@
         <v>44</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>263</v>
+        <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>265</v>
+        <v>142</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>44</v>
       </c>
@@ -10900,7 +10878,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>262</v>
+        <v>144</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10912,19 +10890,19 @@
         <v>44</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>270</v>
+        <v>139</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>44</v>
@@ -10932,39 +10910,43 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>274</v>
+        <v>392</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>44</v>
+        <v>393</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>136</v>
+        <v>394</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>44</v>
       </c>
@@ -11012,22 +10994,22 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>138</v>
+        <v>396</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>44</v>
@@ -11044,11 +11026,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>275</v>
+        <v>397</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11067,18 +11049,18 @@
         <v>44</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>141</v>
+        <v>398</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>44</v>
       </c>
@@ -11102,31 +11084,31 @@
         <v>44</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>44</v>
+        <v>401</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>144</v>
+        <v>397</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11138,19 +11120,19 @@
         <v>44</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AK82" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL82" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>44</v>
@@ -11158,7 +11140,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>276</v>
+        <v>405</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11166,7 +11148,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>51</v>
@@ -11175,38 +11157,36 @@
         <v>44</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>277</v>
+        <v>406</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>280</v>
+        <v>408</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>44</v>
@@ -11218,13 +11198,13 @@
         <v>44</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>44</v>
@@ -11242,7 +11222,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11257,16 +11237,16 @@
         <v>63</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>286</v>
+        <v>218</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>287</v>
+        <v>409</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>44</v>
@@ -11274,7 +11254,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>288</v>
+        <v>410</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11285,7 +11265,7 @@
         <v>42</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>44</v>
@@ -11294,21 +11274,23 @@
         <v>44</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>71</v>
+        <v>222</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>289</v>
+        <v>411</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>290</v>
+        <v>412</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>44</v>
       </c>
@@ -11320,7 +11302,7 @@
         <v>44</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>292</v>
+        <v>44</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>44</v>
@@ -11332,13 +11314,13 @@
         <v>44</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>293</v>
+        <v>44</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>44</v>
@@ -11356,13 +11338,13 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>295</v>
+        <v>410</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>44</v>
@@ -11371,16 +11353,16 @@
         <v>63</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>296</v>
+        <v>414</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>44</v>
@@ -11388,7 +11370,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>297</v>
+        <v>415</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11408,22 +11390,20 @@
         <v>44</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>53</v>
+        <v>259</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>298</v>
+        <v>416</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>301</v>
+        <v>418</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>44</v>
@@ -11436,7 +11416,7 @@
         <v>44</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>44</v>
@@ -11472,7 +11452,7 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>303</v>
+        <v>415</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11487,16 +11467,16 @@
         <v>63</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>305</v>
+        <v>419</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>44</v>
@@ -11504,7 +11484,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>306</v>
+        <v>420</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11515,7 +11495,7 @@
         <v>42</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>44</v>
@@ -11524,19 +11504,21 @@
         <v>44</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>308</v>
+        <v>421</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>44</v>
       </c>
@@ -11548,7 +11530,7 @@
         <v>44</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>309</v>
+        <v>44</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>44</v>
@@ -11560,13 +11542,13 @@
         <v>44</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>44</v>
@@ -11584,13 +11566,13 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>44</v>
@@ -11599,16 +11581,16 @@
         <v>63</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>311</v>
+        <v>237</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>44</v>
@@ -11616,11 +11598,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>313</v>
+        <v>424</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11636,19 +11618,21 @@
         <v>44</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>315</v>
+        <v>425</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>316</v>
+        <v>426</v>
       </c>
       <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>44</v>
       </c>
@@ -11660,7 +11644,7 @@
         <v>44</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>317</v>
+        <v>44</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>44</v>
@@ -11696,7 +11680,7 @@
         <v>44</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>318</v>
+        <v>424</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11705,22 +11689,22 @@
         <v>51</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>44</v>
+        <v>428</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>319</v>
+        <v>429</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>44</v>
@@ -11728,11 +11712,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>321</v>
+        <v>431</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>322</v>
+        <v>44</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11748,20 +11732,18 @@
         <v>44</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>323</v>
+        <v>432</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>44</v>
@@ -11774,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>326</v>
+        <v>44</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>44</v>
@@ -11810,7 +11792,7 @@
         <v>44</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>327</v>
+        <v>431</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11825,16 +11807,16 @@
         <v>63</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>328</v>
+        <v>434</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>329</v>
+        <v>44</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>44</v>
@@ -11842,18 +11824,18 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>330</v>
+        <v>435</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>331</v>
+        <v>44</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>44</v>
@@ -11862,19 +11844,23 @@
         <v>44</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>53</v>
+        <v>383</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>332</v>
+        <v>436</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>44</v>
       </c>
@@ -11922,13 +11908,13 @@
         <v>44</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>334</v>
+        <v>435</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>44</v>
@@ -11937,16 +11923,16 @@
         <v>63</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>335</v>
+        <v>440</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>44</v>
@@ -11954,11 +11940,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>337</v>
+        <v>442</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>338</v>
+        <v>44</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11974,16 +11960,16 @@
         <v>44</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>339</v>
+        <v>136</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>340</v>
+        <v>137</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11998,7 +11984,7 @@
         <v>44</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>341</v>
+        <v>44</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>44</v>
@@ -12034,7 +12020,7 @@
         <v>44</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>342</v>
+        <v>138</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12046,10 +12032,10 @@
         <v>44</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>343</v>
+        <v>139</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>44</v>
@@ -12058,7 +12044,7 @@
         <v>44</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>344</v>
+        <v>44</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>44</v>
@@ -12066,18 +12052,18 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>345</v>
+        <v>443</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>44</v>
@@ -12086,19 +12072,19 @@
         <v>44</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>346</v>
+        <v>141</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>347</v>
+        <v>142</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>348</v>
+        <v>120</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12148,22 +12134,22 @@
         <v>44</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>350</v>
+        <v>139</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>44</v>
@@ -12172,7 +12158,7 @@
         <v>44</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>351</v>
+        <v>44</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>44</v>
@@ -12180,40 +12166,42 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>44</v>
+        <v>393</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M92" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N92" t="s" s="2">
-        <v>355</v>
+        <v>121</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>44</v>
@@ -12226,7 +12214,7 @@
         <v>44</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>44</v>
@@ -12262,22 +12250,22 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>358</v>
+        <v>94</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>44</v>
@@ -12286,7 +12274,7 @@
         <v>44</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>359</v>
+        <v>44</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>44</v>
@@ -12294,7 +12282,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>361</v>
+        <v>445</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12302,7 +12290,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>51</v>
@@ -12320,14 +12308,16 @@
         <v>156</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>362</v>
+        <v>446</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="N93" t="s" s="2">
-        <v>364</v>
+        <v>449</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>44</v>
@@ -12352,13 +12342,13 @@
         <v>44</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>365</v>
+        <v>76</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>44</v>
@@ -12376,10 +12366,10 @@
         <v>44</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>361</v>
+        <v>445</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>51</v>
@@ -12391,16 +12381,16 @@
         <v>63</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>367</v>
+        <v>450</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>368</v>
+        <v>451</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>369</v>
+        <v>452</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>44</v>
@@ -12408,7 +12398,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>370</v>
+        <v>453</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12431,19 +12421,19 @@
         <v>44</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>371</v>
+        <v>204</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>44</v>
@@ -12492,7 +12482,7 @@
         <v>44</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>370</v>
+        <v>453</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12507,16 +12497,16 @@
         <v>63</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>139</v>
+        <v>459</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>377</v>
+        <v>460</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>44</v>
@@ -12524,11 +12514,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>378</v>
+        <v>461</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>44</v>
+        <v>462</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12547,20 +12537,18 @@
         <v>44</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>379</v>
+        <v>463</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>380</v>
+        <v>464</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>381</v>
+        <v>465</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>44</v>
       </c>
@@ -12608,7 +12596,7 @@
         <v>44</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>378</v>
+        <v>461</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12623,7 +12611,7 @@
         <v>63</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>384</v>
+        <v>467</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>139</v>
@@ -12632,7 +12620,7 @@
         <v>44</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>385</v>
+        <v>468</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>44</v>
@@ -12640,7 +12628,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>386</v>
+        <v>469</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12651,7 +12639,7 @@
         <v>42</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>44</v>
@@ -12660,22 +12648,22 @@
         <v>44</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>387</v>
+        <v>192</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>388</v>
+        <v>470</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>389</v>
+        <v>471</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>390</v>
+        <v>472</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>391</v>
+        <v>473</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>44</v>
@@ -12724,25 +12712,25 @@
         <v>44</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>386</v>
+        <v>469</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>392</v>
+        <v>63</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>139</v>
+        <v>474</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>44</v>
@@ -12756,7 +12744,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>394</v>
+        <v>475</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12767,28 +12755,32 @@
         <v>42</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>53</v>
+        <v>383</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>136</v>
+        <v>476</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>44</v>
       </c>
@@ -12836,25 +12828,25 @@
         <v>44</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>138</v>
+        <v>475</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ97" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AK97" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>44</v>
@@ -12868,18 +12860,18 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>395</v>
+        <v>481</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>44</v>
@@ -12891,17 +12883,15 @@
         <v>44</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>44</v>
@@ -12950,19 +12940,19 @@
         <v>44</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>139</v>
@@ -12982,11 +12972,11 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>396</v>
+        <v>482</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>397</v>
+        <v>117</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12999,26 +12989,24 @@
         <v>44</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>398</v>
+        <v>141</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>399</v>
+        <v>142</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="N99" t="s" s="2">
-        <v>121</v>
-      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>44</v>
       </c>
@@ -13066,7 +13054,7 @@
         <v>44</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>400</v>
+        <v>144</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -13081,7 +13069,7 @@
         <v>102</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>44</v>
@@ -13098,11 +13086,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>401</v>
+        <v>483</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>44</v>
+        <v>393</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13115,23 +13103,25 @@
         <v>44</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M100" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N100" t="s" s="2">
-        <v>404</v>
+        <v>121</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>44</v>
@@ -13156,13 +13146,13 @@
         <v>44</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>405</v>
+        <v>44</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>406</v>
+        <v>44</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>44</v>
@@ -13180,7 +13170,7 @@
         <v>44</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13192,19 +13182,19 @@
         <v>44</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>407</v>
+        <v>94</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>408</v>
+        <v>44</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>44</v>
@@ -13212,7 +13202,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>409</v>
+        <v>484</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13220,7 +13210,7 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>51</v>
@@ -13232,21 +13222,21 @@
         <v>44</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>217</v>
+        <v>485</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>44</v>
       </c>
@@ -13294,10 +13284,10 @@
         <v>44</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>409</v>
+        <v>484</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>51</v>
@@ -13309,7 +13299,7 @@
         <v>63</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>139</v>
@@ -13318,7 +13308,7 @@
         <v>44</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>413</v>
+        <v>489</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>44</v>
@@ -13326,7 +13316,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>414</v>
+        <v>490</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13334,10 +13324,10 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>44</v>
@@ -13346,23 +13336,19 @@
         <v>44</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>226</v>
+        <v>71</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>415</v>
+        <v>491</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>44</v>
       </c>
@@ -13386,13 +13372,13 @@
         <v>44</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>44</v>
+        <v>492</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>44</v>
+        <v>493</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>44</v>
@@ -13410,13 +13396,13 @@
         <v>44</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>414</v>
+        <v>490</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>44</v>
@@ -13425,7 +13411,7 @@
         <v>63</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>231</v>
+        <v>494</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>139</v>
@@ -13434,2072 +13420,14 @@
         <v>44</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>418</v>
+        <v>44</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN120" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN120">
+  <autoFilter ref="A1:AN102">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15509,7 +13437,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI119">
+  <conditionalFormatting sqref="A2:AI101">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="400">
   <si>
     <t>Path</t>
   </si>
@@ -340,34 +340,31 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>comm-preference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-preferenceType}
+    <t>genderIdentity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/gender-identity}
 </t>
   </si>
   <si>
-    <t>The type of the patient's preferred language.</t>
-  </si>
-  <si>
-    <t>Indicates what mode of communication the patient prefers to use for the indicated language.</t>
+    <t>Gender Identity</t>
+  </si>
+  <si>
+    <t>Gender identity</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>genderIdentity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-genderIdentity}
+    <t>keyPopulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/key-population}
 </t>
   </si>
   <si>
-    <t>The patient's gender identity</t>
-  </si>
-  <si>
-    <t>The gender the patient identifies with. The Patient's gender identity is used as guidance (e.g. for staff) about how to interact with the patient.</t>
+    <t>Key population</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -1427,7 +1424,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.56640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2641,7 +2638,7 @@
         <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2724,11 +2721,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2750,16 +2747,16 @@
         <v>96</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>44</v>
@@ -2808,7 +2805,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2840,7 +2837,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2863,17 +2860,17 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>44</v>
@@ -2910,10 +2907,10 @@
         <v>44</v>
       </c>
       <c r="AA13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>44</v>
@@ -2922,7 +2919,7 @@
         <v>100</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2937,16 +2934,16 @@
         <v>63</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>44</v>
@@ -2954,10 +2951,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>44</v>
@@ -2979,17 +2976,17 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3038,7 +3035,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3053,16 +3050,16 @@
         <v>63</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>44</v>
@@ -3070,10 +3067,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>44</v>
@@ -3095,17 +3092,17 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>44</v>
@@ -3154,7 +3151,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3169,16 +3166,16 @@
         <v>63</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>44</v>
@@ -3186,10 +3183,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>44</v>
@@ -3211,17 +3208,17 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3270,7 +3267,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3285,16 +3282,16 @@
         <v>63</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>44</v>
@@ -3302,10 +3299,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>44</v>
@@ -3327,17 +3324,17 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3386,7 +3383,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3401,16 +3398,16 @@
         <v>63</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
@@ -3418,7 +3415,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3444,10 +3441,10 @@
         <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3498,7 +3495,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3513,7 +3510,7 @@
         <v>44</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>44</v>
@@ -3530,11 +3527,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3556,13 +3553,13 @@
         <v>96</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3603,7 +3600,7 @@
         <v>99</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>44</v>
@@ -3612,7 +3609,7 @@
         <v>100</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3627,7 +3624,7 @@
         <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>44</v>
@@ -3644,7 +3641,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3670,16 +3667,16 @@
         <v>71</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3704,31 +3701,31 @@
         <v>44</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3743,7 +3740,7 @@
         <v>63</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>44</v>
@@ -3760,7 +3757,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3783,19 +3780,19 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>44</v>
@@ -3820,31 +3817,31 @@
         <v>44</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3859,7 +3856,7 @@
         <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>44</v>
@@ -3868,7 +3865,7 @@
         <v>44</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
@@ -3876,7 +3873,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3902,16 +3899,16 @@
         <v>65</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -3924,43 +3921,43 @@
         <v>44</v>
       </c>
       <c r="S22" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3975,16 +3972,16 @@
         <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
@@ -3992,7 +3989,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4018,13 +4015,13 @@
         <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4038,43 +4035,43 @@
         <v>44</v>
       </c>
       <c r="S23" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4089,16 +4086,16 @@
         <v>63</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -4106,7 +4103,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4129,13 +4126,13 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4186,7 +4183,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4201,16 +4198,16 @@
         <v>63</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -4218,7 +4215,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4241,16 +4238,16 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4300,7 +4297,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4315,16 +4312,16 @@
         <v>63</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4332,7 +4329,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4355,26 +4352,26 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P26" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="O26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P26" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="Q26" t="s" s="2">
         <v>44</v>
       </c>
@@ -4418,7 +4415,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4433,13 +4430,13 @@
         <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -4450,7 +4447,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4473,19 +4470,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4534,7 +4531,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4549,16 +4546,16 @@
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4566,7 +4563,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4589,19 +4586,19 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4650,7 +4647,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4665,16 +4662,16 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4682,7 +4679,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4708,16 +4705,16 @@
         <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4742,14 +4739,14 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4766,7 +4763,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4781,16 +4778,16 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4798,7 +4795,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4821,19 +4818,19 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4882,7 +4879,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4897,24 +4894,24 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4937,19 +4934,19 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -4998,7 +4995,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5013,16 +5010,16 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5030,7 +5027,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5053,19 +5050,19 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5102,10 +5099,10 @@
         <v>44</v>
       </c>
       <c r="AA32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AB32" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>44</v>
@@ -5114,7 +5111,7 @@
         <v>100</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5129,16 +5126,16 @@
         <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -5146,7 +5143,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5169,17 +5166,17 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5204,14 +5201,14 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5228,7 +5225,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5243,16 +5240,16 @@
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5260,7 +5257,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5283,19 +5280,19 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5344,7 +5341,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5359,16 +5356,16 @@
         <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5376,7 +5373,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5399,19 +5396,19 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5460,7 +5457,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5475,16 +5472,16 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5492,7 +5489,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5515,19 +5512,19 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5576,7 +5573,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5588,13 +5585,13 @@
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="AK36" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5608,7 +5605,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5634,10 +5631,10 @@
         <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5688,7 +5685,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5703,7 +5700,7 @@
         <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>44</v>
@@ -5720,11 +5717,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5746,13 +5743,13 @@
         <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="M38" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5802,7 +5799,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5817,7 +5814,7 @@
         <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>44</v>
@@ -5834,11 +5831,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5860,16 +5857,16 @@
         <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="M39" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5918,7 +5915,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5950,7 +5947,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5973,17 +5970,17 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6008,14 +6005,14 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6032,7 +6029,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6047,16 +6044,16 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6064,7 +6061,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6087,17 +6084,17 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6146,7 +6143,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6161,16 +6158,16 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6178,7 +6175,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6201,19 +6198,19 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="N42" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6262,7 +6259,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6277,16 +6274,16 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6294,7 +6291,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6317,17 +6314,17 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6376,7 +6373,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6391,16 +6388,16 @@
         <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6408,7 +6405,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6434,14 +6431,14 @@
         <v>71</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6466,14 +6463,14 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6490,7 +6487,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6505,16 +6502,16 @@
         <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6522,7 +6519,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6545,17 +6542,17 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6604,7 +6601,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6613,22 +6610,22 @@
         <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6636,7 +6633,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6659,13 +6656,13 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6716,7 +6713,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6731,10 +6728,10 @@
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
@@ -6748,7 +6745,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6771,19 +6768,19 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -6832,7 +6829,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6847,10 +6844,10 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
@@ -6864,7 +6861,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6890,10 +6887,10 @@
         <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6944,7 +6941,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6959,7 +6956,7 @@
         <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>44</v>
@@ -6976,11 +6973,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7002,13 +6999,13 @@
         <v>96</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7058,7 +7055,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7073,7 +7070,7 @@
         <v>102</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>44</v>
@@ -7090,11 +7087,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7116,16 +7113,16 @@
         <v>96</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="M50" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7174,7 +7171,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7206,7 +7203,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7229,19 +7226,19 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7290,7 +7287,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>51</v>
@@ -7305,16 +7302,16 @@
         <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7322,7 +7319,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7345,19 +7342,19 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
@@ -7406,7 +7403,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7421,16 +7418,16 @@
         <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7438,11 +7435,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7461,16 +7458,16 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7520,7 +7517,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7535,16 +7532,16 @@
         <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -7552,7 +7549,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7575,19 +7572,19 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7636,7 +7633,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7651,10 +7648,10 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>44</v>
@@ -7668,7 +7665,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7691,19 +7688,19 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -7752,7 +7749,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7767,10 +7764,10 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>44</v>
@@ -7784,7 +7781,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7810,10 +7807,10 @@
         <v>53</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7864,7 +7861,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7879,7 +7876,7 @@
         <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>44</v>
@@ -7896,11 +7893,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7922,13 +7919,13 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7978,7 +7975,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -7993,7 +7990,7 @@
         <v>102</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>44</v>
@@ -8010,11 +8007,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8036,16 +8033,16 @@
         <v>96</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="M58" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
@@ -8094,7 +8091,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8126,7 +8123,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8149,16 +8146,16 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8208,7 +8205,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>51</v>
@@ -8223,16 +8220,16 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8240,7 +8237,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8266,10 +8263,10 @@
         <v>71</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8296,14 +8293,14 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8320,7 +8317,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>51</v>
@@ -8335,10 +8332,10 @@
         <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>44</v>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T07:37:47+00:00</t>
+    <t>2021-09-07T11:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="519">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T11:28:37+00:00</t>
+    <t>2021-09-16T07:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,33 +449,20 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>genderIdentity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/gender-identity}
+    <t>keyPopulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/key-population}
 </t>
   </si>
   <si>
-    <t>Gender Identity</t>
-  </si>
-  <si>
-    <t>Gender identity</t>
+    <t>Key population</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>keyPopulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/key-population}
-</t>
-  </si>
-  <si>
-    <t>Key population</t>
-  </si>
-  <si>
     <t>Patient.modifierExtension</t>
   </si>
   <si>
@@ -537,15 +524,6 @@
     <t>art</t>
   </si>
   <si>
-    <t>passport</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>pos</t>
-  </si>
-  <si>
     <t>Patient.identifier.id</t>
   </si>
   <si>
@@ -655,6 +633,9 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
+    <t>http://openhie.org/fhir/hiv-casereporting/identifier/art</t>
+  </si>
+  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -736,6 +717,21 @@
   </si>
   <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>passport</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-casereporting/identifier/passport</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-casereporting/identifier/nid</t>
+  </si>
+  <si>
+    <t>pos</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -1953,7 +1949,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN72"/>
+  <dimension ref="A1:AN95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1963,7 +1959,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.56640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3063,7 +3059,7 @@
         <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3123,7 +3119,7 @@
         <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>138</v>
@@ -3144,43 +3140,45 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3228,7 +3226,7 @@
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3237,13 +3235,13 @@
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
@@ -3260,11 +3258,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3277,25 +3275,23 @@
         <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I12" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>80</v>
@@ -3332,19 +3328,19 @@
         <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3356,19 +3352,19 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>80</v>
@@ -3376,9 +3372,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3399,17 +3397,17 @@
         <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>80</v>
@@ -3446,19 +3444,19 @@
         <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3473,16 +3471,16 @@
         <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>80</v>
@@ -3490,11 +3488,9 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3503,7 +3499,7 @@
         <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>80</v>
@@ -3512,21 +3508,19 @@
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="N14" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3574,31 +3568,31 @@
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3606,13 +3600,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3628,21 +3620,21 @@
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3678,19 +3670,19 @@
         <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3702,19 +3694,19 @@
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3722,11 +3714,9 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3735,29 +3725,31 @@
         <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="N16" t="s" s="2">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>80</v>
@@ -3782,13 +3774,13 @@
         <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>80</v>
@@ -3806,13 +3798,13 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>80</v>
@@ -3821,16 +3813,16 @@
         <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -3838,11 +3830,9 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3851,7 +3841,7 @@
         <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>80</v>
@@ -3863,17 +3853,19 @@
         <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="N17" t="s" s="2">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -3898,13 +3890,13 @@
         <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>80</v>
@@ -3922,13 +3914,13 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>80</v>
@@ -3937,16 +3929,16 @@
         <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -3954,7 +3946,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3962,7 +3954,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>87</v>
@@ -3974,19 +3966,23 @@
         <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
       </c>
@@ -3995,10 +3991,10 @@
         <v>80</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>80</v>
@@ -4034,7 +4030,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4046,10 +4042,10 @@
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4058,7 +4054,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4066,18 +4062,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>80</v>
@@ -4086,19 +4082,19 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4112,7 +4108,7 @@
         <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>80</v>
@@ -4136,34 +4132,34 @@
         <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4172,7 +4168,7 @@
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -4180,7 +4176,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4197,26 +4193,22 @@
         <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4240,13 +4232,13 @@
         <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>80</v>
@@ -4264,7 +4256,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4279,7 +4271,7 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4288,7 +4280,7 @@
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4296,7 +4288,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4319,20 +4311,18 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4356,13 +4346,13 @@
         <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>80</v>
@@ -4380,7 +4370,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4395,7 +4385,7 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -4404,7 +4394,7 @@
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4412,9 +4402,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4423,7 +4415,7 @@
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>80</v>
@@ -4435,19 +4427,17 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>80</v>
@@ -4460,7 +4450,7 @@
         <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>80</v>
@@ -4496,13 +4486,13 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>80</v>
@@ -4511,16 +4501,16 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4528,7 +4518,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4536,7 +4526,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>87</v>
@@ -4548,20 +4538,18 @@
         <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -4574,7 +4562,7 @@
         <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>80</v>
@@ -4610,7 +4598,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4622,10 +4610,10 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
@@ -4634,7 +4622,7 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>80</v>
@@ -4642,18 +4630,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>80</v>
@@ -4662,18 +4650,20 @@
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4710,34 +4700,34 @@
         <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -4746,7 +4736,7 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -4754,7 +4744,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4771,24 +4761,26 @@
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4812,13 +4804,13 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
@@ -4836,7 +4828,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4851,7 +4843,7 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -4860,7 +4852,7 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -4868,7 +4860,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4885,32 +4877,30 @@
         <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P26" t="s" s="2">
-        <v>238</v>
-      </c>
+      <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4930,13 +4920,13 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
@@ -4954,7 +4944,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4969,24 +4959,24 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4997,10 +4987,10 @@
         <v>87</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5009,19 +4999,19 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>242</v>
+        <v>101</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5031,10 +5021,10 @@
         <v>80</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>80</v>
@@ -5070,13 +5060,13 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>80</v>
@@ -5085,16 +5075,16 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5102,7 +5092,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5113,7 +5103,7 @@
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>80</v>
@@ -5125,20 +5115,18 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5150,7 +5138,7 @@
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>80</v>
@@ -5186,13 +5174,13 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>80</v>
@@ -5201,24 +5189,24 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5226,13 +5214,13 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5241,20 +5229,16 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5278,13 +5262,13 @@
         <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>80</v>
@@ -5302,7 +5286,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5317,24 +5301,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5348,7 +5332,7 @@
         <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5357,20 +5341,18 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5418,7 +5400,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5433,26 +5415,28 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5461,31 +5445,29 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>280</v>
+        <v>151</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>281</v>
+        <v>152</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>284</v>
+        <v>154</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5534,13 +5516,13 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>80</v>
@@ -5549,16 +5531,16 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>285</v>
+        <v>157</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5566,7 +5548,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5574,10 +5556,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
@@ -5586,23 +5568,19 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>288</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>289</v>
+        <v>163</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5638,43 +5616,43 @@
         <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>295</v>
+        <v>166</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5682,18 +5660,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>167</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>80</v>
@@ -5705,15 +5683,17 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -5750,34 +5730,34 @@
         <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -5794,41 +5774,43 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>172</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5852,46 +5834,46 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5900,7 +5882,7 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -5908,7 +5890,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>182</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5925,25 +5907,25 @@
         <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>302</v>
+        <v>185</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>303</v>
+        <v>186</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>304</v>
+        <v>187</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5956,7 +5938,7 @@
         <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>80</v>
@@ -5968,13 +5950,13 @@
         <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>306</v>
+        <v>189</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>307</v>
+        <v>190</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -5992,7 +5974,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>308</v>
+        <v>191</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6007,7 +5989,7 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -6016,7 +5998,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>310</v>
+        <v>192</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6024,7 +6006,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>193</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6032,7 +6014,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6047,18 +6029,20 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>312</v>
+        <v>194</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>195</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6067,10 +6051,10 @@
         <v>80</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>315</v>
+        <v>199</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>80</v>
@@ -6082,13 +6066,13 @@
         <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>80</v>
@@ -6106,7 +6090,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>318</v>
+        <v>200</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6121,7 +6105,7 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>309</v>
+        <v>201</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6130,7 +6114,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>319</v>
+        <v>202</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6138,7 +6122,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>203</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6164,17 +6148,15 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
+        <v>205</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6186,7 +6168,7 @@
         <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>325</v>
+        <v>207</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>80</v>
@@ -6222,7 +6204,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>326</v>
+        <v>208</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6237,7 +6219,7 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>327</v>
+        <v>209</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -6246,7 +6228,7 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>328</v>
+        <v>210</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6254,7 +6236,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>211</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6265,7 +6247,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>80</v>
@@ -6277,13 +6259,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>214</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6298,7 +6280,7 @@
         <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>80</v>
@@ -6334,13 +6316,13 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>333</v>
+        <v>215</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>80</v>
@@ -6349,7 +6331,7 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>334</v>
+        <v>216</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6358,19 +6340,19 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>335</v>
+        <v>217</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6380,7 +6362,7 @@
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6389,15 +6371,17 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>338</v>
+        <v>220</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6410,7 +6394,7 @@
         <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>80</v>
@@ -6446,7 +6430,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>341</v>
+        <v>223</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6461,7 +6445,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>342</v>
+        <v>224</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -6470,29 +6454,31 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>343</v>
+        <v>225</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="C40" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6501,18 +6487,18 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>346</v>
+        <v>152</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6524,7 +6510,7 @@
         <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>80</v>
@@ -6560,13 +6546,13 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
@@ -6575,28 +6561,28 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>351</v>
+        <v>157</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>352</v>
+        <v>160</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>162</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6606,22 +6592,22 @@
         <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>355</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>356</v>
+        <v>164</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6672,7 +6658,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>357</v>
+        <v>165</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6684,10 +6670,10 @@
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>358</v>
+        <v>166</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -6696,7 +6682,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6704,18 +6690,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>167</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>361</v>
+        <v>144</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -6724,18 +6710,20 @@
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>362</v>
+        <v>168</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>80</v>
@@ -6748,7 +6736,7 @@
         <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>80</v>
@@ -6772,34 +6760,34 @@
         <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>365</v>
+        <v>171</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>366</v>
+        <v>166</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -6808,15 +6796,15 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6830,27 +6818,29 @@
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H43" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>369</v>
+        <v>173</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>370</v>
+        <v>174</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6874,13 +6864,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -6898,7 +6888,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>372</v>
+        <v>180</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6913,7 +6903,7 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>373</v>
+        <v>181</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -6922,7 +6912,7 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>374</v>
+        <v>130</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6930,7 +6920,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>182</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6953,17 +6943,19 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>376</v>
+        <v>184</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>378</v>
+        <v>187</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6976,7 +6968,7 @@
         <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>80</v>
@@ -6988,13 +6980,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7012,7 +7004,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>380</v>
+        <v>191</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7027,7 +7019,7 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>381</v>
+        <v>181</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7036,15 +7028,15 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>382</v>
+        <v>192</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>383</v>
+        <v>193</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7052,32 +7044,34 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>384</v>
+        <v>194</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>386</v>
+        <v>197</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
@@ -7090,7 +7084,7 @@
         <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>80</v>
@@ -7102,11 +7096,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7124,7 +7120,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>383</v>
+        <v>200</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7139,16 +7135,16 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>388</v>
+        <v>201</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>390</v>
+        <v>202</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7156,7 +7152,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>203</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7164,7 +7160,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>87</v>
@@ -7176,23 +7172,21 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>392</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>393</v>
+        <v>204</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>394</v>
+        <v>205</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7204,7 +7198,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7240,7 +7234,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>391</v>
+        <v>208</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7255,16 +7249,16 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>397</v>
+        <v>209</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>398</v>
+        <v>210</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7272,7 +7266,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>211</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7283,7 +7277,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
@@ -7292,23 +7286,19 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>400</v>
+        <v>212</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>401</v>
+        <v>213</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7356,13 +7346,13 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>399</v>
+        <v>215</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>80</v>
@@ -7371,16 +7361,16 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>405</v>
+        <v>216</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>406</v>
+        <v>217</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7388,7 +7378,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>218</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7399,7 +7389,7 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>80</v>
@@ -7408,23 +7398,21 @@
         <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>408</v>
+        <v>219</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>409</v>
+        <v>220</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>410</v>
+        <v>221</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7472,31 +7460,31 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>407</v>
+        <v>223</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>413</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>414</v>
+        <v>224</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7504,7 +7492,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>415</v>
+        <v>231</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7521,26 +7509,32 @@
         <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>232</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7584,7 +7578,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7596,16 +7590,16 @@
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7614,43 +7608,45 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>240</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7698,7 +7694,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7710,19 +7706,19 @@
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7730,11 +7726,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>417</v>
+        <v>249</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7747,25 +7743,25 @@
         <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>419</v>
+        <v>251</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>420</v>
+        <v>252</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -7814,7 +7810,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>421</v>
+        <v>249</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7826,27 +7822,27 @@
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>130</v>
+        <v>255</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>422</v>
+        <v>258</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7854,32 +7850,34 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>423</v>
+        <v>259</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="N52" t="s" s="2">
-        <v>425</v>
+        <v>262</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -7904,13 +7902,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>426</v>
+        <v>263</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>427</v>
+        <v>264</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -7928,13 +7926,13 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>422</v>
+        <v>258</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>80</v>
@@ -7943,24 +7941,24 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>428</v>
+        <v>265</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>429</v>
+        <v>267</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>430</v>
+        <v>268</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7974,26 +7972,28 @@
         <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>431</v>
+        <v>270</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="N53" t="s" s="2">
-        <v>433</v>
+        <v>273</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8042,7 +8042,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>430</v>
+        <v>268</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8057,24 +8057,24 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>173</v>
+        <v>275</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>434</v>
+        <v>276</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>435</v>
+        <v>278</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8085,31 +8085,31 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>436</v>
+        <v>280</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>437</v>
+        <v>281</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>438</v>
+        <v>282</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8158,13 +8158,13 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>435</v>
+        <v>278</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>80</v>
@@ -8173,16 +8173,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>439</v>
+        <v>285</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>440</v>
+        <v>286</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8198,10 +8198,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -8210,20 +8210,22 @@
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K55" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="L55" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>443</v>
+        <v>291</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8260,25 +8262,25 @@
         <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>440</v>
+        <v>286</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
@@ -8287,16 +8289,16 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>444</v>
+        <v>296</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8304,7 +8306,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>445</v>
+        <v>297</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8327,18 +8329,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>260</v>
+        <v>163</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>446</v>
+        <v>164</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>447</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8362,13 +8362,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8386,7 +8386,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>445</v>
+        <v>165</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8398,19 +8398,19 @@
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8418,18 +8418,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>449</v>
+        <v>298</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -8441,18 +8441,18 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>450</v>
+        <v>168</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8488,43 +8488,43 @@
         <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>449</v>
+        <v>171</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>454</v>
+        <v>166</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8532,7 +8532,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>456</v>
+        <v>299</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8549,22 +8549,26 @@
         <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>457</v>
+        <v>300</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8576,7 +8580,7 @@
         <v>80</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>80</v>
@@ -8588,13 +8592,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8612,7 +8616,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>456</v>
+        <v>307</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8627,16 +8631,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>459</v>
+        <v>308</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8644,7 +8648,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8655,7 +8659,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>80</v>
@@ -8664,23 +8668,21 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>408</v>
+        <v>107</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>461</v>
+        <v>311</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>462</v>
+        <v>312</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8692,7 +8694,7 @@
         <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>80</v>
@@ -8704,13 +8706,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8728,13 +8730,13 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>460</v>
+        <v>317</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>80</v>
@@ -8743,16 +8745,16 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>465</v>
+        <v>308</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -8760,7 +8762,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>467</v>
+        <v>319</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8780,19 +8782,23 @@
         <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8804,7 +8810,7 @@
         <v>80</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>80</v>
@@ -8840,7 +8846,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8852,10 +8858,10 @@
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>173</v>
+        <v>326</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
@@ -8864,7 +8870,7 @@
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -8872,11 +8878,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>468</v>
+        <v>328</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8892,20 +8898,18 @@
         <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>175</v>
+        <v>329</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -8918,7 +8922,7 @@
         <v>80</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>80</v>
@@ -8954,7 +8958,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8966,10 +8970,10 @@
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>173</v>
+        <v>333</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
@@ -8978,51 +8982,47 @@
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>469</v>
+        <v>335</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>418</v>
+        <v>336</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>419</v>
+        <v>337</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>80</v>
@@ -9070,22 +9070,22 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>130</v>
+        <v>341</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
@@ -9094,51 +9094,49 @@
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>470</v>
+        <v>343</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>471</v>
+        <v>345</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>472</v>
+        <v>346</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9150,7 +9148,7 @@
         <v>80</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>80</v>
@@ -9162,13 +9160,13 @@
         <v>80</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>80</v>
@@ -9186,10 +9184,10 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>470</v>
+        <v>349</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>87</v>
@@ -9201,28 +9199,28 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>475</v>
+        <v>350</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>477</v>
+        <v>351</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>478</v>
+        <v>352</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9232,29 +9230,25 @@
         <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>479</v>
+        <v>354</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9302,7 +9296,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>478</v>
+        <v>356</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9317,16 +9311,16 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>483</v>
+        <v>357</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>485</v>
+        <v>358</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9334,18 +9328,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>486</v>
+        <v>359</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>487</v>
+        <v>360</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9354,20 +9348,18 @@
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>488</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>489</v>
+        <v>361</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>80</v>
@@ -9380,7 +9372,7 @@
         <v>80</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>80</v>
@@ -9416,13 +9408,13 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>486</v>
+        <v>364</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
@@ -9431,24 +9423,24 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>492</v>
+        <v>365</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>493</v>
+        <v>366</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>367</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9456,13 +9448,13 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9471,20 +9463,18 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>495</v>
+        <v>368</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>496</v>
+        <v>369</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9532,7 +9522,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>494</v>
+        <v>371</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9547,16 +9537,16 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>454</v>
+        <v>372</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>499</v>
+        <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -9564,7 +9554,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>500</v>
+        <v>374</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9575,31 +9565,29 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>408</v>
+        <v>212</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>501</v>
+        <v>375</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>504</v>
+        <v>377</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -9612,7 +9600,7 @@
         <v>80</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>80</v>
@@ -9648,13 +9636,13 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>80</v>
@@ -9663,24 +9651,24 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>505</v>
+        <v>380</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>506</v>
+        <v>382</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9688,13 +9676,13 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -9703,16 +9691,18 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>170</v>
+        <v>383</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>171</v>
+        <v>384</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9736,13 +9726,11 @@
         <v>80</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>80</v>
@@ -9760,7 +9748,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>172</v>
+        <v>382</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9772,19 +9760,19 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>173</v>
+        <v>387</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -9792,18 +9780,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>507</v>
+        <v>390</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -9815,18 +9803,20 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>132</v>
+        <v>391</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>175</v>
+        <v>392</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>176</v>
+        <v>393</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>80</v>
       </c>
@@ -9874,31 +9864,31 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>178</v>
+        <v>390</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>173</v>
+        <v>396</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -9906,11 +9896,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>508</v>
+        <v>398</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9923,25 +9913,25 @@
         <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>132</v>
+        <v>399</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>151</v>
+        <v>402</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>152</v>
+        <v>403</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -9990,7 +9980,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10002,19 +9992,19 @@
         <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>130</v>
+        <v>404</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10022,7 +10012,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>509</v>
+        <v>406</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10030,10 +10020,10 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>80</v>
@@ -10042,21 +10032,23 @@
         <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>510</v>
+        <v>407</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>511</v>
+        <v>408</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10104,31 +10096,31 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>509</v>
+        <v>406</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>99</v>
+        <v>412</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>161</v>
+        <v>413</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>514</v>
+        <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10136,7 +10128,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10144,7 +10136,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>87</v>
@@ -10156,16 +10148,16 @@
         <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>516</v>
+        <v>163</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>517</v>
+        <v>164</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10192,62 +10184,2694 @@
         <v>80</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="Y95" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="Y72" t="s" s="2">
+      <c r="Z95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AK95" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN72">
+  <autoFilter ref="A1:AN95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10257,7 +12881,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T07:55:33+00:00</t>
+    <t>2021-10-01T07:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T07:57:23+00:00</t>
+    <t>2021-10-01T08:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:08:42+00:00</t>
+    <t>2021-10-01T08:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:12:33+00:00</t>
+    <t>2022-06-22T18:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1958,45 +1958,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.39453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$104</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="571">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T09:42:33+00:00</t>
+    <t>2022-09-13T13:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -287,244 +287,248 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Patient.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Patient.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Patient.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Patient.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Patient.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Patient.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>keyPopulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/key-population}
+</t>
+  </si>
+  <si>
+    <t>Key population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>An identifier for this patient</t>
+  </si>
+  <si>
+    <t>An identifier for this patient.</t>
+  </si>
+  <si>
+    <t>Patients are almost always assigned specific numerical identifiers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the type of identifier</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Patient.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Patient.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Patient.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Patient.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Patient.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Patient.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>keyPopulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/key-population}
-</t>
-  </si>
-  <si>
-    <t>Key population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Patient.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>An identifier for this patient</t>
-  </si>
-  <si>
-    <t>An identifier for this patient.</t>
-  </si>
-  <si>
-    <t>Patients are almost always assigned specific numerical identifiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:system}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the type of identifier</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>art</t>
-  </si>
-  <si>
-    <t>Patient.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -793,6 +797,173 @@
     <t>PID-5, PID-9</t>
   </si>
   <si>
+    <t>Patient.name.id</t>
+  </si>
+  <si>
+    <t>Patient.name.extension</t>
+  </si>
+  <si>
+    <t>Patient.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>Patient.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>Patient.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>Patient.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>Patient.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>Patient.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>Patient.name.period</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
     <t>Patient.telecom</t>
   </si>
   <si>
@@ -975,9 +1146,6 @@
     <t>Address.use</t>
   </si>
   <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
     <t>XAD.7</t>
   </si>
   <si>
@@ -1020,16 +1188,10 @@
     <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
   </si>
   <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
     <t>137 Nowhere Street, Erewhon 9132</t>
   </si>
   <si>
     <t>Address.text</t>
-  </si>
-  <si>
-    <t>./formatted</t>
   </si>
   <si>
     <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
@@ -1196,9 +1358,6 @@
   </si>
   <si>
     <t>Address.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>XAD.12 / XAD.13 + XAD.14</t>
@@ -1949,7 +2108,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN95"/>
+  <dimension ref="A1:AN104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3511,13 +3670,13 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3568,7 +3727,7 @@
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3583,7 +3742,7 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -3600,7 +3759,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3626,10 +3785,10 @@
         <v>132</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>147</v>
@@ -3673,7 +3832,7 @@
         <v>135</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>80</v>
@@ -3682,7 +3841,7 @@
         <v>136</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3697,7 +3856,7 @@
         <v>138</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -3714,7 +3873,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3740,16 +3899,16 @@
         <v>107</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>80</v>
@@ -3774,13 +3933,13 @@
         <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>80</v>
@@ -3798,7 +3957,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3813,7 +3972,7 @@
         <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>80</v>
@@ -3830,7 +3989,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3853,19 +4012,19 @@
         <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -3890,13 +4049,13 @@
         <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>80</v>
@@ -3914,7 +4073,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3929,7 +4088,7 @@
         <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -3938,7 +4097,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -3946,7 +4105,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3972,16 +4131,16 @@
         <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
@@ -3991,10 +4150,10 @@
         <v>80</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>80</v>
@@ -4030,7 +4189,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4045,7 +4204,7 @@
         <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4054,7 +4213,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4062,7 +4221,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4085,16 +4244,16 @@
         <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4108,7 +4267,7 @@
         <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>80</v>
@@ -4144,7 +4303,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4159,7 +4318,7 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4168,7 +4327,7 @@
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -4176,7 +4335,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4199,13 +4358,13 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4256,7 +4415,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4271,7 +4430,7 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4280,7 +4439,7 @@
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4288,7 +4447,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4311,16 +4470,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4370,7 +4529,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4385,7 +4544,7 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -4394,7 +4553,7 @@
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4405,7 +4564,7 @@
         <v>150</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>80</v>
@@ -4541,13 +4700,13 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4598,7 +4757,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4613,7 +4772,7 @@
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
@@ -4630,7 +4789,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4656,10 +4815,10 @@
         <v>132</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>147</v>
@@ -4703,7 +4862,7 @@
         <v>135</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>80</v>
@@ -4712,7 +4871,7 @@
         <v>136</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4727,7 +4886,7 @@
         <v>138</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -4744,7 +4903,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4770,16 +4929,16 @@
         <v>107</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -4804,13 +4963,13 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
@@ -4828,7 +4987,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4843,7 +5002,7 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -4860,7 +5019,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4883,19 +5042,19 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -4920,13 +5079,13 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
@@ -4944,7 +5103,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4959,7 +5118,7 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
@@ -4968,7 +5127,7 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -4976,7 +5135,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5002,16 +5161,16 @@
         <v>101</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5021,10 +5180,10 @@
         <v>80</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>80</v>
@@ -5060,7 +5219,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5075,7 +5234,7 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -5084,7 +5243,7 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5092,7 +5251,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5115,16 +5274,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5138,7 +5297,7 @@
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>80</v>
@@ -5174,7 +5333,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5189,7 +5348,7 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -5198,7 +5357,7 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5206,7 +5365,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5229,13 +5388,13 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5286,7 +5445,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5301,7 +5460,7 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -5310,7 +5469,7 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5318,7 +5477,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5341,16 +5500,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5400,7 +5559,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5415,7 +5574,7 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5424,7 +5583,7 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5435,7 +5594,7 @@
         <v>150</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>80</v>
@@ -5571,13 +5730,13 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5628,7 +5787,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5643,7 +5802,7 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5660,7 +5819,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5686,10 +5845,10 @@
         <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>147</v>
@@ -5733,7 +5892,7 @@
         <v>135</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>80</v>
@@ -5742,7 +5901,7 @@
         <v>136</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5757,7 +5916,7 @@
         <v>138</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -5774,7 +5933,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5800,16 +5959,16 @@
         <v>107</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -5834,13 +5993,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -5858,7 +6017,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5873,7 +6032,7 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5890,7 +6049,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5913,19 +6072,19 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5950,13 +6109,13 @@
         <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -5974,7 +6133,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5989,7 +6148,7 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -5998,7 +6157,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6006,7 +6165,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6032,16 +6191,16 @@
         <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6051,10 +6210,10 @@
         <v>80</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>80</v>
@@ -6090,7 +6249,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6105,7 +6264,7 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6114,7 +6273,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6122,7 +6281,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6145,16 +6304,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6168,7 +6327,7 @@
         <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>80</v>
@@ -6204,7 +6363,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6219,7 +6378,7 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -6228,7 +6387,7 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6236,7 +6395,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6259,13 +6418,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6316,7 +6475,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6331,7 +6490,7 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6340,7 +6499,7 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6348,7 +6507,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6371,16 +6530,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6430,7 +6589,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6445,7 +6604,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -6454,7 +6613,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6465,7 +6624,7 @@
         <v>150</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>80</v>
@@ -6601,13 +6760,13 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6658,7 +6817,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6673,7 +6832,7 @@
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -6690,7 +6849,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6716,10 +6875,10 @@
         <v>132</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>147</v>
@@ -6763,7 +6922,7 @@
         <v>135</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>80</v>
@@ -6772,7 +6931,7 @@
         <v>136</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6787,7 +6946,7 @@
         <v>138</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -6804,7 +6963,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6830,16 +6989,16 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
@@ -6864,13 +7023,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -6888,7 +7047,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6903,7 +7062,7 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -6920,7 +7079,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6943,19 +7102,19 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6980,13 +7139,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7004,7 +7163,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7019,7 +7178,7 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7028,7 +7187,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7036,7 +7195,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7062,16 +7221,16 @@
         <v>101</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
@@ -7084,7 +7243,7 @@
         <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>80</v>
@@ -7120,7 +7279,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7135,7 +7294,7 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7144,7 +7303,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7152,7 +7311,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7175,16 +7334,16 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7198,7 +7357,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7234,7 +7393,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7249,7 +7408,7 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7258,7 +7417,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7266,7 +7425,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7289,13 +7448,13 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7346,7 +7505,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7361,7 +7520,7 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -7370,7 +7529,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7378,7 +7537,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7401,16 +7560,16 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7460,7 +7619,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7475,7 +7634,7 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7484,7 +7643,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7492,7 +7651,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7515,70 +7674,70 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Q49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Q49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7593,13 +7752,13 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7608,9 +7767,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7618,13 +7777,13 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7633,19 +7792,19 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7694,7 +7853,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7709,16 +7868,16 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7726,7 +7885,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7737,7 +7896,7 @@
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>80</v>
@@ -7746,23 +7905,19 @@
         <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>250</v>
+        <v>163</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7810,75 +7965,73 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7902,63 +8055,63 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7972,28 +8125,28 @@
         <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>269</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8018,13 +8171,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8042,7 +8195,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8057,24 +8210,24 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>277</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8091,25 +8244,25 @@
         <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>279</v>
+        <v>163</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8158,7 +8311,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8173,38 +8326,38 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>87</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8213,20 +8366,18 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>287</v>
+        <v>163</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8262,25 +8413,25 @@
         <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
@@ -8289,55 +8440,57 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8386,22 +8539,22 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -8410,7 +8563,7 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8418,11 +8571,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8438,20 +8591,18 @@
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>168</v>
+        <v>287</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8488,19 +8639,19 @@
         <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>171</v>
+        <v>289</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8512,10 +8663,10 @@
         <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>166</v>
+        <v>290</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -8524,7 +8675,7 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8532,7 +8683,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8543,32 +8694,28 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8580,7 +8727,7 @@
         <v>80</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>80</v>
@@ -8592,13 +8739,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8616,13 +8763,13 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>80</v>
@@ -8631,7 +8778,7 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
@@ -8640,7 +8787,7 @@
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8648,7 +8795,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8671,18 +8818,18 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8694,7 +8841,7 @@
         <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>80</v>
@@ -8706,13 +8853,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8730,7 +8877,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8745,7 +8892,7 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
@@ -8754,7 +8901,7 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -8762,7 +8909,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8773,7 +8920,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>80</v>
@@ -8785,19 +8932,19 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>306</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -8810,7 +8957,7 @@
         <v>80</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>80</v>
@@ -8846,13 +8993,13 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>80</v>
@@ -8861,24 +9008,24 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8886,13 +9033,13 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8901,16 +9048,20 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8922,7 +9073,7 @@
         <v>80</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>80</v>
@@ -8934,13 +9085,13 @@
         <v>80</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>80</v>
@@ -8958,13 +9109,13 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>80</v>
@@ -8973,16 +9124,16 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -8990,11 +9141,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9013,16 +9164,20 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>325</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9034,7 +9189,7 @@
         <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>80</v>
@@ -9070,7 +9225,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9085,28 +9240,28 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9116,27 +9271,29 @@
         <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H63" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>335</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9148,7 +9305,7 @@
         <v>80</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>80</v>
@@ -9184,7 +9341,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9199,38 +9356,38 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9239,16 +9396,20 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>343</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9284,25 +9445,25 @@
         <v>80</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
@@ -9311,16 +9472,16 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9328,11 +9489,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9348,16 +9509,16 @@
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>361</v>
+        <v>164</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>362</v>
+        <v>165</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9372,7 +9533,7 @@
         <v>80</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>80</v>
@@ -9408,7 +9569,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>364</v>
+        <v>166</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9420,10 +9581,10 @@
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>365</v>
+        <v>167</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
@@ -9432,47 +9593,47 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>368</v>
+        <v>169</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>369</v>
+        <v>170</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>370</v>
+        <v>147</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9510,34 +9671,34 @@
         <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>371</v>
+        <v>172</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>372</v>
+        <v>167</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
@@ -9546,7 +9707,7 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -9554,7 +9715,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9571,23 +9732,25 @@
         <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="N67" t="s" s="2">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -9600,7 +9763,7 @@
         <v>80</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>80</v>
@@ -9612,13 +9775,13 @@
         <v>80</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>80</v>
@@ -9636,7 +9799,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9651,7 +9814,7 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -9660,15 +9823,15 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9676,33 +9839,33 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9714,7 +9877,7 @@
         <v>80</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>80</v>
@@ -9726,11 +9889,13 @@
         <v>80</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="X68" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="Y68" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>80</v>
@@ -9748,7 +9913,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9763,16 +9928,16 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>387</v>
+        <v>260</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -9780,7 +9945,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9800,22 +9965,22 @@
         <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>391</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>395</v>
+        <v>266</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>80</v>
@@ -9828,7 +9993,7 @@
         <v>80</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>80</v>
@@ -9864,7 +10029,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9879,16 +10044,16 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>396</v>
+        <v>268</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -9896,7 +10061,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9916,23 +10081,19 @@
         <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>399</v>
+        <v>163</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>80</v>
       </c>
@@ -9944,7 +10105,7 @@
         <v>80</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>80</v>
@@ -9980,7 +10141,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9995,60 +10156,56 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>407</v>
+        <v>163</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10060,7 +10217,7 @@
         <v>80</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>80</v>
@@ -10096,43 +10253,43 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>412</v>
+        <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10142,24 +10299,26 @@
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>163</v>
+        <v>398</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>80</v>
@@ -10172,7 +10331,7 @@
         <v>80</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>80</v>
@@ -10208,7 +10367,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>165</v>
+        <v>402</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10220,10 +10379,10 @@
         <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>166</v>
+        <v>403</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -10232,48 +10391,46 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>144</v>
+        <v>406</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>168</v>
+        <v>407</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>80</v>
@@ -10322,22 +10479,22 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>166</v>
+        <v>410</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
@@ -10346,7 +10503,7 @@
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -10354,43 +10511,39 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10402,7 +10555,7 @@
         <v>80</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>80</v>
@@ -10438,39 +10591,39 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10481,30 +10634,30 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>424</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10528,13 +10681,13 @@
         <v>80</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>80</v>
@@ -10552,13 +10705,13 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>80</v>
@@ -10567,16 +10720,16 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -10584,7 +10737,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10604,20 +10757,20 @@
         <v>80</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
@@ -10630,7 +10783,7 @@
         <v>80</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>80</v>
@@ -10666,7 +10819,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10681,10 +10834,10 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
@@ -10696,7 +10849,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>434</v>
       </c>
@@ -10706,13 +10859,13 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -10721,7 +10874,7 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>435</v>
@@ -10729,11 +10882,9 @@
       <c r="L77" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>80</v>
@@ -10758,13 +10909,11 @@
         <v>80</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>80</v>
+        <v>438</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>80</v>
@@ -10788,7 +10937,7 @@
         <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>80</v>
@@ -10797,16 +10946,16 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>255</v>
+        <v>439</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>166</v>
+        <v>440</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
@@ -10814,7 +10963,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10837,17 +10986,19 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>287</v>
+        <v>443</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="N78" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>80</v>
@@ -10896,7 +11047,7 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -10911,16 +11062,16 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>294</v>
+        <v>448</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>80</v>
@@ -10928,7 +11079,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10939,7 +11090,7 @@
         <v>78</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>80</v>
@@ -10951,17 +11102,19 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>107</v>
+        <v>451</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>259</v>
+        <v>452</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="N79" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>80</v>
@@ -10986,13 +11139,13 @@
         <v>80</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>80</v>
@@ -11010,13 +11163,13 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>80</v>
@@ -11025,16 +11178,16 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>265</v>
+        <v>456</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
@@ -11042,7 +11195,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11053,7 +11206,7 @@
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>80</v>
@@ -11065,17 +11218,19 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>219</v>
+        <v>459</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="N80" t="s" s="2">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>80</v>
@@ -11124,31 +11279,31 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>99</v>
+        <v>464</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>80</v>
@@ -11156,7 +11311,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11179,13 +11334,13 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>456</v>
+        <v>164</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>457</v>
+        <v>165</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11236,7 +11391,7 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>455</v>
+        <v>166</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11248,13 +11403,13 @@
         <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>458</v>
+        <v>167</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>80</v>
@@ -11268,11 +11423,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11291,20 +11446,18 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>407</v>
+        <v>132</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>460</v>
+        <v>169</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>461</v>
+        <v>170</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>80</v>
       </c>
@@ -11352,7 +11505,7 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>459</v>
+        <v>172</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11364,13 +11517,13 @@
         <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>464</v>
+        <v>167</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
@@ -11384,39 +11537,43 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>163</v>
+        <v>470</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11464,22 +11621,22 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>165</v>
+        <v>472</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>80</v>
@@ -11496,11 +11653,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11519,18 +11676,18 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>168</v>
+        <v>474</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>80</v>
       </c>
@@ -11554,13 +11711,13 @@
         <v>80</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>80</v>
+        <v>477</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>80</v>
@@ -11578,7 +11735,7 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>171</v>
+        <v>473</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11590,19 +11747,19 @@
         <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>166</v>
+        <v>479</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>80</v>
@@ -11610,42 +11767,40 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>418</v>
+        <v>482</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>148</v>
+        <v>484</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>80</v>
@@ -11694,31 +11849,31 @@
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>80</v>
@@ -11726,7 +11881,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11734,10 +11889,10 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>80</v>
@@ -11749,19 +11904,19 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>183</v>
+        <v>306</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>473</v>
+        <v>310</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>80</v>
@@ -11786,13 +11941,13 @@
         <v>80</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>80</v>
@@ -11810,13 +11965,13 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>80</v>
@@ -11825,16 +11980,16 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>474</v>
+        <v>311</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>475</v>
+        <v>167</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>80</v>
@@ -11842,7 +11997,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11865,19 +12020,17 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>232</v>
+        <v>343</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>80</v>
@@ -11926,7 +12079,7 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -11941,16 +12094,16 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>482</v>
+        <v>350</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>483</v>
+        <v>167</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>80</v>
@@ -11958,18 +12111,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>80</v>
@@ -11981,18 +12134,18 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>487</v>
+        <v>107</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>488</v>
+        <v>315</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>80</v>
       </c>
@@ -12016,13 +12169,13 @@
         <v>80</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>80</v>
@@ -12040,13 +12193,13 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>80</v>
@@ -12055,16 +12208,16 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>491</v>
+        <v>321</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>80</v>
@@ -12072,7 +12225,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12080,7 +12233,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>87</v>
@@ -12092,22 +12245,20 @@
         <v>80</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>80</v>
@@ -12156,7 +12307,7 @@
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12165,22 +12316,22 @@
         <v>87</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>498</v>
+        <v>167</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>80</v>
+        <v>506</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>80</v>
@@ -12188,7 +12339,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12199,32 +12350,28 @@
         <v>78</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>407</v>
+        <v>213</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>80</v>
       </c>
@@ -12272,13 +12419,13 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>80</v>
@@ -12287,10 +12434,10 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>80</v>
@@ -12304,7 +12451,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12315,7 +12462,7 @@
         <v>78</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>80</v>
@@ -12327,16 +12474,20 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>89</v>
+        <v>459</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>163</v>
+        <v>512</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>80</v>
       </c>
@@ -12384,25 +12535,25 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>165</v>
+        <v>511</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>166</v>
+        <v>516</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>80</v>
+        <v>517</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>80</v>
@@ -12416,18 +12567,18 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>80</v>
@@ -12439,17 +12590,15 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>80</v>
@@ -12498,22 +12647,22 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>80</v>
@@ -12530,11 +12679,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>417</v>
+        <v>144</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12547,26 +12696,24 @@
         <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>418</v>
+        <v>169</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>419</v>
+        <v>170</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N93" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>80</v>
       </c>
@@ -12614,7 +12761,7 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>420</v>
+        <v>172</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12629,7 +12776,7 @@
         <v>138</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>80</v>
@@ -12646,41 +12793,43 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>509</v>
+        <v>132</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>80</v>
       </c>
@@ -12728,31 +12877,31 @@
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>513</v>
+        <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>80</v>
@@ -12760,7 +12909,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12780,19 +12929,23 @@
         <v>80</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>80</v>
       </c>
@@ -12816,13 +12969,13 @@
         <v>80</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>516</v>
+        <v>112</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>517</v>
+        <v>113</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>80</v>
@@ -12840,7 +12993,7 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>87</v>
@@ -12855,23 +13008,1053 @@
         <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="AK95" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE100" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AL95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AF100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN95">
+  <autoFilter ref="A1:AN104">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12881,7 +14064,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI94">
+  <conditionalFormatting sqref="A2:AI103">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-13T13:24:33+00:00</t>
+    <t>2022-09-14T08:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:32:49+00:00</t>
+    <t>2022-09-14T08:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-16T12:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T12:02:49+00:00</t>
+    <t>2022-09-19T10:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T10:13:53+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:39:45+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T11:53:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:53:08+00:00</t>
+    <t>2022-10-06T13:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T13:57:21+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
